--- a/capiq_data/in_process_data/IQ281407.xlsx
+++ b/capiq_data/in_process_data/IQ281407.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE8D11-D665-4494-8B40-C6F98E32E92B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A40F9-1668-4C34-AEBC-9A3C07996189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"28772a2f-d630-4905-a609-376274d72143"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"199fe468-62ef-4a91-84d7-2e52b22bf153"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>55.576999999999998</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="D2">
-        <v>629.86900000000003</v>
+        <v>384.53300000000002</v>
       </c>
       <c r="E2">
-        <v>451.80399999999997</v>
+        <v>332.22</v>
       </c>
       <c r="F2">
-        <v>252.346</v>
+        <v>152.61799999999999</v>
       </c>
       <c r="G2">
-        <v>1325.1949999999999</v>
+        <v>1018.94</v>
       </c>
       <c r="H2">
-        <v>2872.4549999999999</v>
+        <v>2489.0329999999999</v>
       </c>
       <c r="I2">
-        <v>200.15299999999999</v>
+        <v>75.021000000000001</v>
       </c>
       <c r="J2">
-        <v>787.66800000000001</v>
+        <v>417.40199999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>852.98500000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>660.95100000000002</v>
+        <v>1179.0170000000001</v>
       </c>
       <c r="O2">
-        <v>1869.3</v>
+        <v>1857.7739999999999</v>
       </c>
       <c r="P2">
-        <v>921.56700000000001</v>
+        <v>1270.3869999999999</v>
       </c>
       <c r="Q2">
-        <v>16.446999999999999</v>
+        <v>22.048999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>5514</v>
+        <v>6614</v>
       </c>
       <c r="T2">
-        <v>1003.155</v>
+        <v>631.25900000000001</v>
       </c>
       <c r="U2">
-        <v>131.33199999999999</v>
+        <v>128.869</v>
       </c>
       <c r="V2">
-        <v>106.81100000000001</v>
+        <v>57.886000000000003</v>
       </c>
       <c r="W2">
-        <v>-21.576000000000001</v>
+        <v>-37.902000000000001</v>
       </c>
       <c r="X2">
-        <v>-38.158000000000001</v>
+        <v>927.08600000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.5920000000000001</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="AA2">
-        <v>55.576999999999998</v>
+        <v>1.3859999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>84.043000000000006</v>
+        <v>20.271999999999998</v>
       </c>
       <c r="D3">
-        <v>714.27099999999996</v>
+        <v>483.661</v>
       </c>
       <c r="E3">
-        <v>520.07799999999997</v>
+        <v>346.733</v>
       </c>
       <c r="F3">
-        <v>297.45999999999998</v>
+        <v>199.52199999999999</v>
       </c>
       <c r="G3">
-        <v>1387.6189999999999</v>
+        <v>970.62199999999996</v>
       </c>
       <c r="H3">
-        <v>2946.5459999999998</v>
+        <v>2406.9630000000002</v>
       </c>
       <c r="I3">
-        <v>185.20500000000001</v>
+        <v>80.581999999999994</v>
       </c>
       <c r="J3">
-        <v>786.98</v>
+        <v>838.53200000000004</v>
       </c>
       <c r="K3">
-        <v>63.139000000000003</v>
+        <v>443.90199999999999</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-403.91899999999998</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-2.8690000000000002</v>
       </c>
       <c r="N3">
-        <v>633.97199999999998</v>
+        <v>784.06600000000003</v>
       </c>
       <c r="O3">
-        <v>1843.7</v>
+        <v>1874.08</v>
       </c>
       <c r="P3">
-        <v>972.60599999999999</v>
+        <v>1282.434</v>
       </c>
       <c r="Q3">
-        <v>-19.361999999999998</v>
+        <v>-62.935000000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1102.846</v>
+        <v>532.88300000000004</v>
       </c>
       <c r="U3">
-        <v>111.97</v>
+        <v>65.933999999999997</v>
       </c>
       <c r="V3">
-        <v>-34.944000000000003</v>
+        <v>-23.071999999999999</v>
       </c>
       <c r="W3">
-        <v>-21.657</v>
+        <v>-14.614000000000001</v>
       </c>
       <c r="X3">
-        <v>34.21</v>
+        <v>-26.303000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-5.1639999999999997</v>
       </c>
       <c r="AA3">
-        <v>84.043000000000006</v>
+        <v>20.271999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>76.188000000000002</v>
+        <v>33.005000000000003</v>
       </c>
       <c r="D4">
-        <v>715.58900000000006</v>
+        <v>478.21600000000001</v>
       </c>
       <c r="E4">
-        <v>545.54999999999995</v>
+        <v>367.47500000000002</v>
       </c>
       <c r="F4">
-        <v>284.423</v>
+        <v>208.71</v>
       </c>
       <c r="G4">
-        <v>1439.23</v>
+        <v>976.58199999999999</v>
       </c>
       <c r="H4">
-        <v>3008.6010000000001</v>
+        <v>2385.306</v>
       </c>
       <c r="I4">
-        <v>166.43799999999999</v>
+        <v>86.956999999999994</v>
       </c>
       <c r="J4">
-        <v>767.35299999999995</v>
+        <v>816.27800000000002</v>
       </c>
       <c r="K4">
-        <v>93.838999999999999</v>
+        <v>445.25200000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>628.65200000000004</v>
+        <v>776.69</v>
       </c>
       <c r="O4">
-        <v>1819.8869999999999</v>
+        <v>1846.6969999999999</v>
       </c>
       <c r="P4">
-        <v>983.69799999999998</v>
+        <v>1261.53</v>
       </c>
       <c r="Q4">
-        <v>11.461</v>
+        <v>-5.2450000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1188.7139999999999</v>
+        <v>538.60900000000004</v>
       </c>
       <c r="U4">
-        <v>123.431</v>
+        <v>60.689</v>
       </c>
       <c r="V4">
-        <v>37.088999999999999</v>
+        <v>49.819000000000003</v>
       </c>
       <c r="W4">
-        <v>-21.692</v>
+        <v>-14.365</v>
       </c>
       <c r="X4">
-        <v>-0.246</v>
+        <v>-34.933</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-4.9619999999999997</v>
       </c>
       <c r="AA4">
-        <v>76.188000000000002</v>
+        <v>33.005000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>82.241</v>
+        <v>33.555</v>
       </c>
       <c r="D5">
-        <v>713.77499999999998</v>
+        <v>462.71899999999999</v>
       </c>
       <c r="E5">
-        <v>518.96699999999998</v>
+        <v>362.35300000000001</v>
       </c>
       <c r="F5">
-        <v>278.375</v>
+        <v>194.08799999999999</v>
       </c>
       <c r="G5">
-        <v>1383.4369999999999</v>
+        <v>961.35</v>
       </c>
       <c r="H5">
-        <v>2953.529</v>
+        <v>2374.634</v>
       </c>
       <c r="I5">
-        <v>180.93100000000001</v>
+        <v>76.234999999999999</v>
       </c>
       <c r="J5">
-        <v>757.07</v>
+        <v>944.61</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>306.15600000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>575.26199999999994</v>
+        <v>638.51199999999994</v>
       </c>
       <c r="O5">
-        <v>1755.0650000000001</v>
+        <v>1833.961</v>
       </c>
       <c r="P5">
-        <v>911.72199999999998</v>
+        <v>1250.7660000000001</v>
       </c>
       <c r="Q5">
-        <v>-16.148</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1198.4639999999999</v>
+        <v>540.673</v>
       </c>
       <c r="U5">
-        <v>107.283</v>
+        <v>66.384</v>
       </c>
       <c r="V5">
-        <v>114.581</v>
+        <v>89.951999999999998</v>
       </c>
       <c r="W5">
-        <v>-21.824999999999999</v>
+        <v>-14.356999999999999</v>
       </c>
       <c r="X5">
-        <v>-96.304000000000002</v>
+        <v>-75.366</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1.431</v>
       </c>
       <c r="AA5">
-        <v>82.241</v>
+        <v>33.555</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>24.393999999999998</v>
+        <v>29.17</v>
       </c>
       <c r="D6">
-        <v>644.38300000000004</v>
+        <v>419.17</v>
       </c>
       <c r="E6">
-        <v>472.346</v>
+        <v>318.02300000000002</v>
       </c>
       <c r="F6">
-        <v>244.398</v>
+        <v>178.01300000000001</v>
       </c>
       <c r="G6">
-        <v>1317.22</v>
+        <v>896.36099999999999</v>
       </c>
       <c r="H6">
-        <v>2965.5810000000001</v>
+        <v>2268.0509999999999</v>
       </c>
       <c r="I6">
-        <v>208.75899999999999</v>
+        <v>85.659000000000006</v>
       </c>
       <c r="J6">
-        <v>778.24800000000005</v>
+        <v>939.404</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>226.14500000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>564.56600000000003</v>
+        <v>560.21400000000006</v>
       </c>
       <c r="O6">
-        <v>1858.174</v>
+        <v>1743.8810000000001</v>
       </c>
       <c r="P6">
-        <v>894.93600000000004</v>
+        <v>1167.3489999999999</v>
       </c>
       <c r="Q6">
-        <v>-19.004000000000001</v>
+        <v>-17.863</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5644</v>
+        <v>5929</v>
       </c>
       <c r="T6">
-        <v>1107.4069999999999</v>
+        <v>524.16999999999996</v>
       </c>
       <c r="U6">
-        <v>88.278999999999996</v>
+        <v>48.521000000000001</v>
       </c>
       <c r="V6">
-        <v>72.463999999999999</v>
+        <v>64.805999999999997</v>
       </c>
       <c r="W6">
-        <v>-25.076000000000001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-38.366999999999997</v>
+        <v>-72.778999999999996</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AA6">
-        <v>24.393999999999998</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>81.055999999999997</v>
+        <v>41.947000000000003</v>
       </c>
       <c r="D7">
-        <v>710.61599999999999</v>
+        <v>445.84399999999999</v>
       </c>
       <c r="E7">
-        <v>521.60599999999999</v>
+        <v>339.62799999999999</v>
       </c>
       <c r="F7">
-        <v>285.399</v>
+        <v>185.98</v>
       </c>
       <c r="G7">
-        <v>1345.365</v>
+        <v>884.55600000000004</v>
       </c>
       <c r="H7">
-        <v>3013.3980000000001</v>
+        <v>2239.348</v>
       </c>
       <c r="I7">
-        <v>189.22300000000001</v>
+        <v>101.875</v>
       </c>
       <c r="J7">
-        <v>777.95299999999997</v>
+        <v>930.72799999999995</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>221.81800000000001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-8.9849999999999994</v>
       </c>
       <c r="M7">
-        <v>-16.193999999999999</v>
+        <v>-4.4089999999999998</v>
       </c>
       <c r="N7">
-        <v>520.85199999999998</v>
+        <v>554.20299999999997</v>
       </c>
       <c r="O7">
-        <v>1812.3420000000001</v>
+        <v>1701.6990000000001</v>
       </c>
       <c r="P7">
-        <v>870.54700000000003</v>
+        <v>1153.309</v>
       </c>
       <c r="Q7">
-        <v>-11.753</v>
+        <v>-14.048999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1201.056</v>
+        <v>537.649</v>
       </c>
       <c r="U7">
-        <v>76.525999999999996</v>
+        <v>34.472000000000001</v>
       </c>
       <c r="V7">
-        <v>52.636000000000003</v>
+        <v>36.654000000000003</v>
       </c>
       <c r="W7">
-        <v>-25.085999999999999</v>
+        <v>-14.215</v>
       </c>
       <c r="X7">
-        <v>-38.863999999999997</v>
+        <v>-35.494999999999997</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="AA7">
-        <v>81.055999999999997</v>
+        <v>41.947000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>88.594999999999999</v>
+        <v>45.401000000000003</v>
       </c>
       <c r="D8">
-        <v>721.31700000000001</v>
+        <v>476.33600000000001</v>
       </c>
       <c r="E8">
-        <v>516.59799999999996</v>
+        <v>369.827</v>
       </c>
       <c r="F8">
-        <v>301.54300000000001</v>
+        <v>203.72399999999999</v>
       </c>
       <c r="G8">
-        <v>1364.2529999999999</v>
+        <v>925.38300000000004</v>
       </c>
       <c r="H8">
-        <v>3025.3069999999998</v>
+        <v>2285.7040000000002</v>
       </c>
       <c r="I8">
-        <v>169.673</v>
+        <v>97.468999999999994</v>
       </c>
       <c r="J8">
-        <v>777.404</v>
+        <v>978.83699999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>160.99299999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>507.423</v>
+        <v>491.79</v>
       </c>
       <c r="O8">
-        <v>1798.796</v>
+        <v>1706.1890000000001</v>
       </c>
       <c r="P8">
-        <v>864.88199999999995</v>
+        <v>1141.7380000000001</v>
       </c>
       <c r="Q8">
-        <v>28.111000000000001</v>
+        <v>-0.35699999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1226.511</v>
+        <v>579.51499999999999</v>
       </c>
       <c r="U8">
-        <v>104.637</v>
+        <v>34.115000000000002</v>
       </c>
       <c r="V8">
-        <v>82.73</v>
+        <v>49.606000000000002</v>
       </c>
       <c r="W8">
-        <v>-25.12</v>
+        <v>-14.189</v>
       </c>
       <c r="X8">
-        <v>-25.463000000000001</v>
+        <v>-81.686999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AA8">
-        <v>88.596000000000004</v>
+        <v>45.401000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>16.364999999999998</v>
+        <v>49.6</v>
       </c>
       <c r="D9">
-        <v>708.95500000000004</v>
+        <v>462.77699999999999</v>
       </c>
       <c r="E9">
-        <v>534.75800000000004</v>
+        <v>350.017</v>
       </c>
       <c r="F9">
-        <v>301.524</v>
+        <v>201.702</v>
       </c>
       <c r="G9">
-        <v>1388.9639999999999</v>
+        <v>882.15099999999995</v>
       </c>
       <c r="H9">
-        <v>3059.9050000000002</v>
+        <v>2225.52</v>
       </c>
       <c r="I9">
-        <v>160.95599999999999</v>
+        <v>94.888999999999996</v>
       </c>
       <c r="J9">
-        <v>676.95799999999997</v>
+        <v>1053.7080000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.196000000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>652.91</v>
+        <v>364.12299999999999</v>
       </c>
       <c r="O9">
-        <v>1809.095</v>
+        <v>1650.1320000000001</v>
       </c>
       <c r="P9">
-        <v>903.68</v>
+        <v>1076.4110000000001</v>
       </c>
       <c r="Q9">
-        <v>-7.4560000000000004</v>
+        <v>-10.971</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1250.81</v>
+        <v>575.38800000000003</v>
       </c>
       <c r="U9">
-        <v>97.180999999999997</v>
+        <v>23.143999999999998</v>
       </c>
       <c r="V9">
-        <v>2.2120000000000002</v>
+        <v>95.405000000000001</v>
       </c>
       <c r="W9">
-        <v>-25.251999999999999</v>
+        <v>-14.242000000000001</v>
       </c>
       <c r="X9">
-        <v>11.829000000000001</v>
+        <v>-80.186000000000007</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-0.16200000000000001</v>
       </c>
       <c r="AA9">
-        <v>16.363</v>
+        <v>49.598999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>68.117999999999995</v>
+        <v>38.996000000000002</v>
       </c>
       <c r="D10">
-        <v>680.55799999999999</v>
+        <v>424.29199999999997</v>
       </c>
       <c r="E10">
-        <v>499.44299999999998</v>
+        <v>314.37299999999999</v>
       </c>
       <c r="F10">
-        <v>287.06799999999998</v>
+        <v>182.00800000000001</v>
       </c>
       <c r="G10">
-        <v>1572.6869999999999</v>
+        <v>866.74900000000002</v>
       </c>
       <c r="H10">
-        <v>3246.192</v>
+        <v>2232.694</v>
       </c>
       <c r="I10">
-        <v>199.27199999999999</v>
+        <v>104.00700000000001</v>
       </c>
       <c r="J10">
-        <v>881.10400000000004</v>
+        <v>1007.085</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>48.957999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>629.87800000000004</v>
+        <v>359.49700000000001</v>
       </c>
       <c r="O10">
-        <v>1993.6369999999999</v>
+        <v>1658.0160000000001</v>
       </c>
       <c r="P10">
-        <v>1031.175</v>
+        <v>1056.748</v>
       </c>
       <c r="Q10">
-        <v>227.24100000000001</v>
+        <v>-8.2859999999999996</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5715</v>
+        <v>5728</v>
       </c>
       <c r="T10">
-        <v>1252.5550000000001</v>
+        <v>574.678</v>
       </c>
       <c r="U10">
-        <v>324.42200000000003</v>
+        <v>14.858000000000001</v>
       </c>
       <c r="V10">
-        <v>186.21799999999999</v>
+        <v>61.679000000000002</v>
       </c>
       <c r="W10">
-        <v>-55.484999999999999</v>
+        <v>-14.18</v>
       </c>
       <c r="X10">
-        <v>77.902000000000001</v>
+        <v>-52.683999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="AA10">
-        <v>68.117999999999995</v>
+        <v>38.996000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>90.697000000000003</v>
+        <v>32.017000000000003</v>
       </c>
       <c r="D11">
-        <v>727.83600000000001</v>
+        <v>466.22399999999999</v>
       </c>
       <c r="E11">
-        <v>527.56399999999996</v>
+        <v>355.35</v>
       </c>
       <c r="F11">
-        <v>312.55799999999999</v>
+        <v>195.77699999999999</v>
       </c>
       <c r="G11">
-        <v>1534.6980000000001</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="H11">
-        <v>3200.549</v>
+        <v>2290.7220000000002</v>
       </c>
       <c r="I11">
-        <v>159.36699999999999</v>
+        <v>98.741</v>
       </c>
       <c r="J11">
-        <v>915.78200000000004</v>
+        <v>793.20799999999997</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>235.56100000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.35199999999999998</v>
+        <v>-169.94200000000001</v>
       </c>
       <c r="N11">
-        <v>540.26</v>
+        <v>615.90200000000004</v>
       </c>
       <c r="O11">
-        <v>1889.6969999999999</v>
+        <v>1702.326</v>
       </c>
       <c r="P11">
-        <v>1017.182</v>
+        <v>1087.5930000000001</v>
       </c>
       <c r="Q11">
-        <v>-24.376000000000001</v>
+        <v>1.008</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1310.8520000000001</v>
+        <v>588.39599999999996</v>
       </c>
       <c r="U11">
-        <v>300.04599999999999</v>
+        <v>15.866</v>
       </c>
       <c r="V11">
-        <v>18.719000000000001</v>
+        <v>14.326000000000001</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-14.138</v>
       </c>
       <c r="X11">
-        <v>-11.88</v>
+        <v>-7.0380000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="AA11">
-        <v>90.697000000000003</v>
+        <v>32.017000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>102.32299999999999</v>
+        <v>51.398000000000003</v>
       </c>
       <c r="D12">
-        <v>757.63499999999999</v>
+        <v>482.61099999999999</v>
       </c>
       <c r="E12">
-        <v>541.60699999999997</v>
+        <v>370.55599999999998</v>
       </c>
       <c r="F12">
-        <v>334.14800000000002</v>
+        <v>207.376</v>
       </c>
       <c r="G12">
-        <v>1633.893</v>
+        <v>982.18799999999999</v>
       </c>
       <c r="H12">
-        <v>3308.9209999999998</v>
+        <v>2321.0430000000001</v>
       </c>
       <c r="I12">
-        <v>176.73099999999999</v>
+        <v>102.60899999999999</v>
       </c>
       <c r="J12">
-        <v>932.79600000000005</v>
+        <v>712.93600000000004</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>244.06700000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>566.82399999999996</v>
+        <v>608.28099999999995</v>
       </c>
       <c r="O12">
-        <v>1934.491</v>
+        <v>1667.819</v>
       </c>
       <c r="P12">
-        <v>1032.971</v>
+        <v>1008.2430000000001</v>
       </c>
       <c r="Q12">
-        <v>65.850999999999999</v>
+        <v>-0.44</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1374.43</v>
+        <v>653.22400000000005</v>
       </c>
       <c r="U12">
-        <v>365.89699999999999</v>
+        <v>15.426</v>
       </c>
       <c r="V12">
-        <v>99.323999999999998</v>
+        <v>42.960999999999999</v>
       </c>
       <c r="W12">
-        <v>-27.733000000000001</v>
+        <v>-14.102</v>
       </c>
       <c r="X12">
-        <v>-15.35</v>
+        <v>-121.09099999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AA12">
-        <v>102.322</v>
+        <v>51.398000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>99.045000000000002</v>
+        <v>51.070999999999998</v>
       </c>
       <c r="D13">
-        <v>742.25599999999997</v>
+        <v>480.88600000000002</v>
       </c>
       <c r="E13">
-        <v>553.88400000000001</v>
+        <v>366.16</v>
       </c>
       <c r="F13">
-        <v>327.97199999999998</v>
+        <v>202.69499999999999</v>
       </c>
       <c r="G13">
-        <v>1633.867</v>
+        <v>959.78399999999999</v>
       </c>
       <c r="H13">
-        <v>3324.511</v>
+        <v>2300.4290000000001</v>
       </c>
       <c r="I13">
-        <v>176.238</v>
+        <v>93.816000000000003</v>
       </c>
       <c r="J13">
-        <v>933.46400000000006</v>
+        <v>700.41700000000003</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>262.06299999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>509.57600000000002</v>
+        <v>589.20699999999999</v>
       </c>
       <c r="O13">
-        <v>1884.981</v>
+        <v>1631.384</v>
       </c>
       <c r="P13">
-        <v>933.60799999999995</v>
+        <v>963.23099999999999</v>
       </c>
       <c r="Q13">
-        <v>-22.748000000000001</v>
+        <v>-0.432</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1439.53</v>
+        <v>669.04499999999996</v>
       </c>
       <c r="U13">
-        <v>343.149</v>
+        <v>14.994</v>
       </c>
       <c r="V13">
-        <v>139.273</v>
+        <v>92.625</v>
       </c>
       <c r="W13">
-        <v>-27.792000000000002</v>
+        <v>-14.975</v>
       </c>
       <c r="X13">
-        <v>-138.95099999999999</v>
+        <v>-78.058000000000007</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>99.046000000000006</v>
+        <v>51.070999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>61.478999999999999</v>
+        <v>38.110999999999997</v>
       </c>
       <c r="D14">
-        <v>725.16899999999998</v>
+        <v>471.79899999999998</v>
       </c>
       <c r="E14">
-        <v>524.49300000000005</v>
+        <v>320.76799999999997</v>
       </c>
       <c r="F14">
-        <v>317.59399999999999</v>
+        <v>203.21600000000001</v>
       </c>
       <c r="G14">
-        <v>1652.903</v>
+        <v>902.67200000000003</v>
       </c>
       <c r="H14">
-        <v>3331.7310000000002</v>
+        <v>2306.8919999999998</v>
       </c>
       <c r="I14">
-        <v>226.733</v>
+        <v>104.02800000000001</v>
       </c>
       <c r="J14">
-        <v>932.66499999999996</v>
+        <v>690.23099999999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>193.54300000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>560.36599999999999</v>
+        <v>526.04499999999996</v>
       </c>
       <c r="O14">
-        <v>1864.68</v>
+        <v>1564.261</v>
       </c>
       <c r="P14">
-        <v>932.81399999999996</v>
+        <v>884.53499999999997</v>
       </c>
       <c r="Q14">
-        <v>62.356000000000002</v>
+        <v>-2.9129999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>6000</v>
+        <v>5454</v>
       </c>
       <c r="T14">
-        <v>1467.0509999999999</v>
+        <v>742.63099999999997</v>
       </c>
       <c r="U14">
-        <v>405.505</v>
+        <v>12.081</v>
       </c>
       <c r="V14">
-        <v>150.24600000000001</v>
+        <v>119.684</v>
       </c>
       <c r="W14">
-        <v>-31.821999999999999</v>
+        <v>-14.959</v>
       </c>
       <c r="X14">
-        <v>-50.856999999999999</v>
+        <v>-94.066000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>61.478999999999999</v>
+        <v>38.110999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>106.70699999999999</v>
+        <v>56.357999999999997</v>
       </c>
       <c r="D15">
-        <v>770.22400000000005</v>
+        <v>535.01499999999999</v>
       </c>
       <c r="E15">
-        <v>574.678</v>
+        <v>364.404</v>
       </c>
       <c r="F15">
-        <v>344.03100000000001</v>
+        <v>228.22900000000001</v>
       </c>
       <c r="G15">
-        <v>1569.8510000000001</v>
+        <v>952.56</v>
       </c>
       <c r="H15">
-        <v>3321.3530000000001</v>
+        <v>2342.0259999999998</v>
       </c>
       <c r="I15">
-        <v>208.995</v>
+        <v>109.063</v>
       </c>
       <c r="J15">
-        <v>931.63499999999999</v>
+        <v>679.16099999999994</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>184.255</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-16.001000000000001</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-4.4710000000000001</v>
       </c>
       <c r="N15">
-        <v>484.541</v>
+        <v>527.48800000000006</v>
       </c>
       <c r="O15">
-        <v>1800.415</v>
+        <v>1557.9970000000001</v>
       </c>
       <c r="P15">
-        <v>933.92600000000004</v>
+        <v>876.08500000000004</v>
       </c>
       <c r="Q15">
-        <v>-136.92099999999999</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1520.9380000000001</v>
+        <v>784.029</v>
       </c>
       <c r="U15">
-        <v>268.584</v>
+        <v>11.795999999999999</v>
       </c>
       <c r="V15">
-        <v>34.993000000000002</v>
+        <v>21.274999999999999</v>
       </c>
       <c r="W15">
-        <v>-31.742999999999999</v>
+        <v>-14.996</v>
       </c>
       <c r="X15">
-        <v>-49.328000000000003</v>
+        <v>-9.7089999999999996</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>106.70699999999999</v>
+        <v>56.357999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>110.285</v>
+        <v>56.502000000000002</v>
       </c>
       <c r="D16">
-        <v>788.41399999999999</v>
+        <v>524.17700000000002</v>
       </c>
       <c r="E16">
-        <v>583.22</v>
+        <v>371.63600000000002</v>
       </c>
       <c r="F16">
-        <v>355.76</v>
+        <v>228.46100000000001</v>
       </c>
       <c r="G16">
-        <v>1644.048</v>
+        <v>969.71500000000003</v>
       </c>
       <c r="H16">
-        <v>3400.5329999999999</v>
+        <v>2343.002</v>
       </c>
       <c r="I16">
-        <v>195.251</v>
+        <v>116.31399999999999</v>
       </c>
       <c r="J16">
-        <v>932.62099999999998</v>
+        <v>666.57</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>158.77600000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>468.65</v>
+        <v>514.68399999999997</v>
       </c>
       <c r="O16">
-        <v>1798.5889999999999</v>
+        <v>1532.9749999999999</v>
       </c>
       <c r="P16">
-        <v>935.673</v>
+        <v>837.38300000000004</v>
       </c>
       <c r="Q16">
-        <v>58.268999999999998</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1601.944</v>
+        <v>810.02700000000004</v>
       </c>
       <c r="U16">
-        <v>326.85300000000001</v>
+        <v>11.244999999999999</v>
       </c>
       <c r="V16">
-        <v>119.03700000000001</v>
+        <v>56.302</v>
       </c>
       <c r="W16">
-        <v>-31.673999999999999</v>
+        <v>-15.161</v>
       </c>
       <c r="X16">
-        <v>-40.296999999999997</v>
+        <v>-42.289000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>110.285</v>
+        <v>56.502000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>107.416</v>
+        <v>42.305</v>
       </c>
       <c r="D17">
-        <v>773.81299999999999</v>
+        <v>506.22899999999998</v>
       </c>
       <c r="E17">
-        <v>562.61699999999996</v>
+        <v>356.69799999999998</v>
       </c>
       <c r="F17">
-        <v>340.39299999999997</v>
+        <v>217.17699999999999</v>
       </c>
       <c r="G17">
-        <v>1712.6089999999999</v>
+        <v>948.02800000000002</v>
       </c>
       <c r="H17">
-        <v>3476.509</v>
+        <v>2305.4319999999998</v>
       </c>
       <c r="I17">
-        <v>207.227</v>
+        <v>93.549000000000007</v>
       </c>
       <c r="J17">
-        <v>933.625</v>
+        <v>663.32399999999996</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>53.386000000000003</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>516.85400000000004</v>
+        <v>440.71100000000001</v>
       </c>
       <c r="O17">
-        <v>1832.855</v>
+        <v>1463.348</v>
       </c>
       <c r="P17">
-        <v>943.95100000000002</v>
+        <v>728.24199999999996</v>
       </c>
       <c r="Q17">
-        <v>77.983000000000004</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1643.654</v>
+        <v>842.08399999999995</v>
       </c>
       <c r="U17">
-        <v>404.83600000000001</v>
+        <v>14.263999999999999</v>
       </c>
       <c r="V17">
-        <v>163.47300000000001</v>
+        <v>112.99</v>
       </c>
       <c r="W17">
-        <v>-31.696000000000002</v>
+        <v>-16.52</v>
       </c>
       <c r="X17">
-        <v>-38.497</v>
+        <v>-133.15799999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>107.41500000000001</v>
+        <v>42.305</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>90.135000000000005</v>
+        <v>40.905999999999999</v>
       </c>
       <c r="D18">
-        <v>756.08199999999999</v>
+        <v>468.23200000000003</v>
       </c>
       <c r="E18">
-        <v>493.76799999999997</v>
+        <v>335.779</v>
       </c>
       <c r="F18">
-        <v>329.60700000000003</v>
+        <v>199.55099999999999</v>
       </c>
       <c r="G18">
-        <v>1710.027</v>
+        <v>961.37</v>
       </c>
       <c r="H18">
-        <v>3494.6210000000001</v>
+        <v>2363.2939999999999</v>
       </c>
       <c r="I18">
-        <v>216.03800000000001</v>
+        <v>103.97799999999999</v>
       </c>
       <c r="J18">
-        <v>934.23199999999997</v>
+        <v>668.96900000000005</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>518.80799999999999</v>
+        <v>399.52199999999999</v>
       </c>
       <c r="O18">
-        <v>1971.932</v>
+        <v>1452.807</v>
       </c>
       <c r="P18">
-        <v>942.322</v>
+        <v>684.92600000000004</v>
       </c>
       <c r="Q18">
-        <v>73.736999999999995</v>
+        <v>18.332000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6211</v>
+        <v>5212</v>
       </c>
       <c r="T18">
-        <v>1522.6890000000001</v>
+        <v>910.48699999999997</v>
       </c>
       <c r="U18">
-        <v>478.57299999999998</v>
+        <v>32.595999999999997</v>
       </c>
       <c r="V18">
-        <v>200.887</v>
+        <v>105.28</v>
       </c>
       <c r="W18">
-        <v>-38.125999999999998</v>
+        <v>-16.536999999999999</v>
       </c>
       <c r="X18">
-        <v>-74.207999999999998</v>
+        <v>-60.213999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AA18">
-        <v>90.135000000000005</v>
+        <v>40.905999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>128.25800000000001</v>
+        <v>52.542999999999999</v>
       </c>
       <c r="D19">
-        <v>774.90700000000004</v>
+        <v>523.05200000000002</v>
       </c>
       <c r="E19">
-        <v>525.26</v>
+        <v>374.065</v>
       </c>
       <c r="F19">
-        <v>346.55799999999999</v>
+        <v>214.655</v>
       </c>
       <c r="G19">
-        <v>1755.11</v>
+        <v>973.25099999999998</v>
       </c>
       <c r="H19">
-        <v>3507.172</v>
+        <v>2373.3449999999998</v>
       </c>
       <c r="I19">
-        <v>215.91499999999999</v>
+        <v>109.449</v>
       </c>
       <c r="J19">
-        <v>935.17</v>
+        <v>660.86199999999997</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>68.367999999999995</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-11.654</v>
       </c>
       <c r="N19">
-        <v>487.32</v>
+        <v>412.65899999999999</v>
       </c>
       <c r="O19">
-        <v>1935.075</v>
+        <v>1470.837</v>
       </c>
       <c r="P19">
-        <v>943.54899999999998</v>
+        <v>729.61599999999999</v>
       </c>
       <c r="Q19">
-        <v>-34.884</v>
+        <v>-9.7829999999999995</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1572.097</v>
+        <v>902.50800000000004</v>
       </c>
       <c r="U19">
-        <v>443.68900000000002</v>
+        <v>22.812999999999999</v>
       </c>
       <c r="V19">
-        <v>31.475999999999999</v>
+        <v>-14.01</v>
       </c>
       <c r="W19">
-        <v>-37.970999999999997</v>
+        <v>-16.571000000000002</v>
       </c>
       <c r="X19">
-        <v>-39.542000000000002</v>
+        <v>20.693000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AA19">
-        <v>128.25800000000001</v>
+        <v>52.542999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>105.374</v>
+        <v>56.713000000000001</v>
       </c>
       <c r="D20">
-        <v>767.54100000000005</v>
+        <v>515.57799999999997</v>
       </c>
       <c r="E20">
-        <v>566.41399999999999</v>
+        <v>358.74299999999999</v>
       </c>
       <c r="F20">
-        <v>346.16500000000002</v>
+        <v>216.51300000000001</v>
       </c>
       <c r="G20">
-        <v>1722.2539999999999</v>
+        <v>983.75199999999995</v>
       </c>
       <c r="H20">
-        <v>3653.6280000000002</v>
+        <v>2367.0079999999998</v>
       </c>
       <c r="I20">
-        <v>241.53200000000001</v>
+        <v>106.29900000000001</v>
       </c>
       <c r="J20">
-        <v>989.19600000000003</v>
+        <v>139.41999999999999</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>101.598</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>523.52099999999996</v>
+        <v>941.18600000000004</v>
       </c>
       <c r="O20">
-        <v>2026.954</v>
+        <v>1478.443</v>
       </c>
       <c r="P20">
-        <v>997.98900000000003</v>
+        <v>754.41200000000003</v>
       </c>
       <c r="Q20">
-        <v>-66.435000000000002</v>
+        <v>37.051000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1626.674</v>
+        <v>888.56500000000005</v>
       </c>
       <c r="U20">
-        <v>377.25400000000002</v>
+        <v>59.863999999999997</v>
       </c>
       <c r="V20">
-        <v>134.84200000000001</v>
+        <v>71.551000000000002</v>
       </c>
       <c r="W20">
-        <v>-37.956000000000003</v>
+        <v>-16.533000000000001</v>
       </c>
       <c r="X20">
-        <v>-7.4249999999999998</v>
+        <v>-8.9329999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>105.374</v>
+        <v>56.713000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>106.44799999999999</v>
+        <v>68.572000000000003</v>
       </c>
       <c r="D21">
-        <v>765.09199999999998</v>
+        <v>493.11799999999999</v>
       </c>
       <c r="E21">
-        <v>569.60799999999995</v>
+        <v>338.82799999999997</v>
       </c>
       <c r="F21">
-        <v>349.87</v>
+        <v>206.40600000000001</v>
       </c>
       <c r="G21">
-        <v>1638.751</v>
+        <v>965.34199999999998</v>
       </c>
       <c r="H21">
-        <v>3911.6849999999999</v>
+        <v>2415.1529999999998</v>
       </c>
       <c r="I21">
-        <v>254.34399999999999</v>
+        <v>98.72</v>
       </c>
       <c r="J21">
-        <v>1057.992</v>
+        <v>136.374</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>43.698</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>687.32</v>
+        <v>927.58900000000006</v>
       </c>
       <c r="O21">
-        <v>2315.5360000000001</v>
+        <v>1486.6020000000001</v>
       </c>
       <c r="P21">
-        <v>1195.82</v>
+        <v>688.98299999999995</v>
       </c>
       <c r="Q21">
-        <v>-104.97799999999999</v>
+        <v>-31.576000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1596.1489999999999</v>
+        <v>928.55100000000004</v>
       </c>
       <c r="U21">
-        <v>272.27600000000001</v>
+        <v>28.288</v>
       </c>
       <c r="V21">
-        <v>128.37700000000001</v>
+        <v>84.052999999999997</v>
       </c>
       <c r="W21">
-        <v>-37.948</v>
+        <v>-17.388999999999999</v>
       </c>
       <c r="X21">
-        <v>113.845</v>
+        <v>-94.343000000000004</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>106.447</v>
+        <v>68.572000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>79.167000000000002</v>
+        <v>15.238</v>
       </c>
       <c r="D22">
-        <v>715.649</v>
+        <v>461.64499999999998</v>
       </c>
       <c r="E22">
-        <v>537.89599999999996</v>
+        <v>304.82299999999998</v>
       </c>
       <c r="F22">
-        <v>316.94600000000003</v>
+        <v>186.827</v>
       </c>
       <c r="G22">
-        <v>1437.1089999999999</v>
+        <v>1191.2739999999999</v>
       </c>
       <c r="H22">
-        <v>3702.01</v>
+        <v>2638.1959999999999</v>
       </c>
       <c r="I22">
-        <v>285.50099999999998</v>
+        <v>98.587999999999994</v>
       </c>
       <c r="J22">
-        <v>935.37300000000005</v>
+        <v>131.28100000000001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>314.62200000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>725.15599999999995</v>
+        <v>1202.6959999999999</v>
       </c>
       <c r="O22">
-        <v>2107.0210000000002</v>
+        <v>1722.8489999999999</v>
       </c>
       <c r="P22">
-        <v>1067.722</v>
+        <v>950.673</v>
       </c>
       <c r="Q22">
-        <v>-90.287999999999997</v>
+        <v>244.25700000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6732</v>
+        <v>5160</v>
       </c>
       <c r="T22">
-        <v>1594.989</v>
+        <v>915.34699999999998</v>
       </c>
       <c r="U22">
-        <v>181.988</v>
+        <v>272.54500000000002</v>
       </c>
       <c r="V22">
-        <v>138.88300000000001</v>
+        <v>35.566000000000003</v>
       </c>
       <c r="W22">
-        <v>-44.994999999999997</v>
+        <v>-17.286000000000001</v>
       </c>
       <c r="X22">
-        <v>-198.17400000000001</v>
+        <v>239.941</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,125 +2591,125 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>79.167000000000002</v>
+        <v>15.238</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>118.60299999999999</v>
+        <v>53.69</v>
       </c>
       <c r="D23">
-        <v>783.31200000000001</v>
+        <v>511.43200000000002</v>
       </c>
       <c r="E23">
-        <v>609.58699999999999</v>
+        <v>348.46600000000001</v>
       </c>
       <c r="F23">
-        <v>361.46699999999998</v>
+        <v>216.614</v>
       </c>
       <c r="G23">
-        <v>1891.529</v>
+        <v>1153.5619999999999</v>
       </c>
       <c r="H23">
-        <v>4162.46</v>
+        <v>2586.9470000000001</v>
       </c>
       <c r="I23">
-        <v>276.92899999999997</v>
+        <v>105.298</v>
       </c>
       <c r="J23">
-        <v>1369.9549999999999</v>
+        <v>130.155</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>304.68700000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-124.602</v>
+        <v>-19.404</v>
       </c>
       <c r="N23">
-        <v>712.74800000000005</v>
+        <v>1176.2670000000001</v>
       </c>
       <c r="O23">
-        <v>2526.9</v>
+        <v>1696.7059999999999</v>
       </c>
       <c r="P23">
-        <v>1503.6469999999999</v>
+        <v>935.86</v>
       </c>
       <c r="Q23">
-        <v>346.88900000000001</v>
+        <v>-67.293999999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1635.56</v>
+        <v>890.24099999999999</v>
       </c>
       <c r="U23">
-        <v>528.87699999999995</v>
+        <v>205.251</v>
       </c>
       <c r="V23">
-        <v>39.942999999999998</v>
+        <v>41.112000000000002</v>
       </c>
       <c r="W23">
-        <v>-44.826000000000001</v>
+        <v>-17.189</v>
       </c>
       <c r="X23">
-        <v>330.95100000000002</v>
+        <v>-105.435</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AA23">
-        <v>118.60299999999999</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>116.73399999999999</v>
+        <v>61.182000000000002</v>
       </c>
       <c r="D24">
-        <v>793.47799999999995</v>
+        <v>530.505</v>
       </c>
       <c r="E24">
-        <v>621.16399999999999</v>
+        <v>375.625</v>
       </c>
       <c r="F24">
-        <v>366.654</v>
+        <v>227.61600000000001</v>
       </c>
       <c r="G24">
-        <v>1929.434</v>
+        <v>995.53399999999999</v>
       </c>
       <c r="H24">
-        <v>4154.6279999999997</v>
+        <v>2452.58</v>
       </c>
       <c r="I24">
-        <v>255.143</v>
+        <v>107.633</v>
       </c>
       <c r="J24">
-        <v>1357.684</v>
+        <v>415.791</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>308.93599999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>688.25099999999998</v>
+        <v>704.46100000000001</v>
       </c>
       <c r="O24">
-        <v>2476.6959999999999</v>
+        <v>1506.5820000000001</v>
       </c>
       <c r="P24">
-        <v>1491.1569999999999</v>
+        <v>724.72699999999998</v>
       </c>
       <c r="Q24">
-        <v>11.115</v>
+        <v>-175.41800000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1677.932</v>
+        <v>945.99800000000005</v>
       </c>
       <c r="U24">
-        <v>539.99199999999996</v>
+        <v>29.832999999999998</v>
       </c>
       <c r="V24">
-        <v>132.35300000000001</v>
+        <v>79.647999999999996</v>
       </c>
       <c r="W24">
-        <v>-44.637</v>
+        <v>-16.800999999999998</v>
       </c>
       <c r="X24">
-        <v>-95.572000000000003</v>
+        <v>-246.81200000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>116.733</v>
+        <v>61.182000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>89.777000000000001</v>
+        <v>63.646000000000001</v>
       </c>
       <c r="D25">
-        <v>777.00099999999998</v>
+        <v>539.13499999999999</v>
       </c>
       <c r="E25">
-        <v>587.07399999999996</v>
+        <v>373.22</v>
       </c>
       <c r="F25">
-        <v>347.24900000000002</v>
+        <v>228.98599999999999</v>
       </c>
       <c r="G25">
-        <v>1857.0350000000001</v>
+        <v>1134.229</v>
       </c>
       <c r="H25">
-        <v>4097.1289999999999</v>
+        <v>2581.9540000000002</v>
       </c>
       <c r="I25">
-        <v>259.20800000000003</v>
+        <v>104.717</v>
       </c>
       <c r="J25">
-        <v>1110.201</v>
+        <v>505.59800000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>302.66300000000001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>855.92399999999998</v>
+        <v>734.80100000000004</v>
       </c>
       <c r="O25">
-        <v>2398.931</v>
+        <v>1622.8420000000001</v>
       </c>
       <c r="P25">
-        <v>1367.876</v>
+        <v>808.26099999999997</v>
       </c>
       <c r="Q25">
-        <v>-41.262</v>
+        <v>132.93</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1698.1980000000001</v>
+        <v>959.11199999999997</v>
       </c>
       <c r="U25">
-        <v>498.73</v>
+        <v>162.76300000000001</v>
       </c>
       <c r="V25">
-        <v>169.541</v>
+        <v>116.747</v>
       </c>
       <c r="W25">
-        <v>-44.588000000000001</v>
+        <v>-16.824999999999999</v>
       </c>
       <c r="X25">
-        <v>-182.08799999999999</v>
+        <v>18.963000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>89.777000000000001</v>
+        <v>63.646000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>79.917000000000002</v>
+        <v>47.981999999999999</v>
       </c>
       <c r="D26">
-        <v>762.56</v>
+        <v>514.31799999999998</v>
       </c>
       <c r="E26">
-        <v>550.65800000000002</v>
+        <v>357.15499999999997</v>
       </c>
       <c r="F26">
-        <v>334.39800000000002</v>
+        <v>210.91499999999999</v>
       </c>
       <c r="G26">
-        <v>1609.0139999999999</v>
+        <v>1079.8030000000001</v>
       </c>
       <c r="H26">
-        <v>4016.9839999999999</v>
+        <v>2478.904</v>
       </c>
       <c r="I26">
-        <v>274.815</v>
+        <v>111.661</v>
       </c>
       <c r="J26">
-        <v>1066.855</v>
+        <v>791.44299999999998</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>15.897</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>898.29700000000003</v>
+        <v>446.77100000000002</v>
       </c>
       <c r="O26">
-        <v>2385.85</v>
+        <v>1573.7360000000001</v>
       </c>
       <c r="P26">
-        <v>1325.3710000000001</v>
+        <v>807.34</v>
       </c>
       <c r="Q26">
-        <v>-174.738</v>
+        <v>-48.255000000000003</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6932</v>
+        <v>5087</v>
       </c>
       <c r="T26">
-        <v>1631.134</v>
+        <v>905.16800000000001</v>
       </c>
       <c r="U26">
-        <v>323.99200000000002</v>
+        <v>114.508</v>
       </c>
       <c r="V26">
-        <v>208.30199999999999</v>
+        <v>44.112000000000002</v>
       </c>
       <c r="W26">
-        <v>-50.845999999999997</v>
+        <v>-16.565999999999999</v>
       </c>
       <c r="X26">
-        <v>-87.718000000000004</v>
+        <v>-63.951999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-17.38</v>
       </c>
       <c r="AA26">
-        <v>79.917000000000002</v>
+        <v>47.981999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>115.764</v>
+        <v>62.689</v>
       </c>
       <c r="D27">
-        <v>828.29300000000001</v>
+        <v>566.101</v>
       </c>
       <c r="E27">
-        <v>637.52099999999996</v>
+        <v>400.17899999999997</v>
       </c>
       <c r="F27">
-        <v>369.09300000000002</v>
+        <v>236.71899999999999</v>
       </c>
       <c r="G27">
-        <v>1711.433</v>
+        <v>1120.3119999999999</v>
       </c>
       <c r="H27">
-        <v>4252.259</v>
+        <v>2497.393</v>
       </c>
       <c r="I27">
-        <v>277.42099999999999</v>
+        <v>117.286</v>
       </c>
       <c r="J27">
-        <v>1186.4169999999999</v>
+        <v>799.73500000000001</v>
       </c>
       <c r="K27">
-        <v>107.441</v>
+        <v>12.717000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>985.82399999999996</v>
+        <v>344.06400000000002</v>
       </c>
       <c r="O27">
-        <v>2620.7420000000002</v>
+        <v>1557.809</v>
       </c>
       <c r="P27">
-        <v>1552.4590000000001</v>
+        <v>812.452</v>
       </c>
       <c r="Q27">
-        <v>-23.925000000000001</v>
+        <v>-31.303000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1631.5170000000001</v>
+        <v>939.58399999999995</v>
       </c>
       <c r="U27">
-        <v>300.06700000000001</v>
+        <v>83.204999999999998</v>
       </c>
       <c r="V27">
-        <v>18.495000000000001</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="W27">
-        <v>-50.677</v>
+        <v>-18.763999999999999</v>
       </c>
       <c r="X27">
-        <v>116.93300000000001</v>
+        <v>-30.844999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>4.1029999999999998</v>
       </c>
       <c r="AA27">
-        <v>115.764</v>
+        <v>62.689</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>109.795</v>
+        <v>78.372</v>
       </c>
       <c r="D28">
-        <v>842.86099999999999</v>
+        <v>573.726</v>
       </c>
       <c r="E28">
-        <v>665.51099999999997</v>
+        <v>415.01100000000002</v>
       </c>
       <c r="F28">
-        <v>379.13299999999998</v>
+        <v>246.05799999999999</v>
       </c>
       <c r="G28">
-        <v>1993.9259999999999</v>
+        <v>1154.316</v>
       </c>
       <c r="H28">
-        <v>4618.875</v>
+        <v>2546.9879999999998</v>
       </c>
       <c r="I28">
-        <v>265.89999999999998</v>
+        <v>114.157</v>
       </c>
       <c r="J28">
-        <v>1636.338</v>
+        <v>785.774</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>18.981999999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>861.22299999999996</v>
+        <v>351.947</v>
       </c>
       <c r="O28">
-        <v>2938.7890000000002</v>
+        <v>1552.3320000000001</v>
       </c>
       <c r="P28">
-        <v>1894.3689999999999</v>
+        <v>804.75599999999997</v>
       </c>
       <c r="Q28">
-        <v>191.31899999999999</v>
+        <v>40.966000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1680.086</v>
+        <v>994.65599999999995</v>
       </c>
       <c r="U28">
-        <v>491.38600000000002</v>
+        <v>124.17100000000001</v>
       </c>
       <c r="V28">
-        <v>39.426000000000002</v>
+        <v>92.495999999999995</v>
       </c>
       <c r="W28">
-        <v>-50.506999999999998</v>
+        <v>-18.466000000000001</v>
       </c>
       <c r="X28">
-        <v>226.678</v>
+        <v>-47.216999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="AA28">
-        <v>109.795</v>
+        <v>78.372</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>110.261</v>
+        <v>58.844000000000001</v>
       </c>
       <c r="D29">
-        <v>872.94</v>
+        <v>583.31299999999999</v>
       </c>
       <c r="E29">
-        <v>691.23900000000003</v>
+        <v>430.661</v>
       </c>
       <c r="F29">
-        <v>386.08300000000003</v>
+        <v>244.13800000000001</v>
       </c>
       <c r="G29">
-        <v>1849.7470000000001</v>
+        <v>1118.261</v>
       </c>
       <c r="H29">
-        <v>4520.4380000000001</v>
+        <v>2533.6590000000001</v>
       </c>
       <c r="I29">
-        <v>271.19400000000002</v>
+        <v>116.919</v>
       </c>
       <c r="J29">
-        <v>1625.502</v>
+        <v>1134.4929999999999</v>
       </c>
       <c r="K29">
-        <v>39.957000000000001</v>
+        <v>52.578000000000003</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>696.12699999999995</v>
+        <v>414.00799999999998</v>
       </c>
       <c r="O29">
-        <v>2757.95</v>
+        <v>1985.952</v>
       </c>
       <c r="P29">
-        <v>1673.951</v>
+        <v>1187.0709999999999</v>
       </c>
       <c r="Q29">
-        <v>-175.38399999999999</v>
+        <v>-62.207000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1762.4880000000001</v>
+        <v>547.70699999999999</v>
       </c>
       <c r="U29">
-        <v>316.00200000000001</v>
+        <v>61.963999999999999</v>
       </c>
       <c r="V29">
-        <v>141.56800000000001</v>
+        <v>96.44</v>
       </c>
       <c r="W29">
-        <v>-50.494</v>
+        <v>-19.018000000000001</v>
       </c>
       <c r="X29">
-        <v>-286.11500000000001</v>
+        <v>-138.06100000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-8.5619999999999994</v>
       </c>
       <c r="AA29">
-        <v>110.261</v>
+        <v>58.844000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-40.155000000000001</v>
+        <v>47.222999999999999</v>
       </c>
       <c r="D30">
-        <v>854.625</v>
+        <v>553.49800000000005</v>
       </c>
       <c r="E30">
-        <v>668.16200000000003</v>
+        <v>400.52699999999999</v>
       </c>
       <c r="F30">
-        <v>363.79700000000003</v>
+        <v>225.29900000000001</v>
       </c>
       <c r="G30">
-        <v>1896.5440000000001</v>
+        <v>1156.0930000000001</v>
       </c>
       <c r="H30">
-        <v>4598.9260000000004</v>
+        <v>2726.3139999999999</v>
       </c>
       <c r="I30">
-        <v>338.18799999999999</v>
+        <v>130.99199999999999</v>
       </c>
       <c r="J30">
-        <v>1632.1859999999999</v>
+        <v>1060.1679999999999</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>35.670999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>768.76800000000003</v>
+        <v>543.44299999999998</v>
       </c>
       <c r="O30">
-        <v>2909.6320000000001</v>
+        <v>2109.1170000000002</v>
       </c>
       <c r="P30">
-        <v>1639.152</v>
+        <v>1212.6410000000001</v>
       </c>
       <c r="Q30">
-        <v>52.043999999999997</v>
+        <v>89.507000000000005</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7299</v>
+        <v>5315</v>
       </c>
       <c r="T30">
-        <v>1689.2940000000001</v>
+        <v>617.197</v>
       </c>
       <c r="U30">
-        <v>368.04599999999999</v>
+        <v>151.471</v>
       </c>
       <c r="V30">
-        <v>191.267</v>
+        <v>121.98</v>
       </c>
       <c r="W30">
-        <v>-54.44</v>
+        <v>-20.352</v>
       </c>
       <c r="X30">
-        <v>-100.054</v>
+        <v>-11.872999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.671</v>
       </c>
       <c r="AA30">
-        <v>-40.155000000000001</v>
+        <v>47.222999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>129.416</v>
+        <v>55.948</v>
       </c>
       <c r="D31">
-        <v>930.928</v>
+        <v>596.60500000000002</v>
       </c>
       <c r="E31">
-        <v>734.37800000000004</v>
+        <v>451.29</v>
       </c>
       <c r="F31">
-        <v>406.262</v>
+        <v>245.482</v>
       </c>
       <c r="G31">
-        <v>1970.3409999999999</v>
+        <v>1180.1400000000001</v>
       </c>
       <c r="H31">
-        <v>4681.2759999999998</v>
+        <v>2740.855</v>
       </c>
       <c r="I31">
-        <v>324.262</v>
+        <v>133.23599999999999</v>
       </c>
       <c r="J31">
-        <v>1676.211</v>
+        <v>1071.3420000000001</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>16.555</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-36.567999999999998</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>716.75199999999995</v>
+        <v>517.98900000000003</v>
       </c>
       <c r="O31">
-        <v>2902.3139999999999</v>
+        <v>2157.7040000000002</v>
       </c>
       <c r="P31">
-        <v>1716.1990000000001</v>
+        <v>1224.211</v>
       </c>
       <c r="Q31">
-        <v>-62.77</v>
+        <v>-91.013000000000005</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1778.962</v>
+        <v>583.15099999999995</v>
       </c>
       <c r="U31">
-        <v>305.27600000000001</v>
+        <v>60.457999999999998</v>
       </c>
       <c r="V31">
-        <v>-11.395</v>
+        <v>7.641</v>
       </c>
       <c r="W31">
-        <v>-54.42</v>
+        <v>-18.628</v>
       </c>
       <c r="X31">
-        <v>-14.615</v>
+        <v>-82.876999999999995</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-3.7839999999999998</v>
       </c>
       <c r="AA31">
-        <v>129.416</v>
+        <v>55.948</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>99.147999999999996</v>
+        <v>67.027000000000001</v>
       </c>
       <c r="D32">
-        <v>920.01599999999996</v>
+        <v>636.12599999999998</v>
       </c>
       <c r="E32">
-        <v>723.85500000000002</v>
+        <v>464.48700000000002</v>
       </c>
       <c r="F32">
-        <v>399.12</v>
+        <v>263.78100000000001</v>
       </c>
       <c r="G32">
-        <v>2026.58</v>
+        <v>1279.021</v>
       </c>
       <c r="H32">
-        <v>4673.442</v>
+        <v>2818.7779999999998</v>
       </c>
       <c r="I32">
-        <v>315.65600000000001</v>
+        <v>137.178</v>
       </c>
       <c r="J32">
-        <v>1717.1890000000001</v>
+        <v>1068.884</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>26.484999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>699.37</v>
+        <v>542.83100000000002</v>
       </c>
       <c r="O32">
-        <v>2917.239</v>
+        <v>2175.7930000000001</v>
       </c>
       <c r="P32">
-        <v>1752.425</v>
+        <v>1216.4459999999999</v>
       </c>
       <c r="Q32">
-        <v>17.146999999999998</v>
+        <v>59.031999999999996</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1756.203</v>
+        <v>642.98500000000001</v>
       </c>
       <c r="U32">
-        <v>322.423</v>
+        <v>119.49</v>
       </c>
       <c r="V32">
-        <v>66.563999999999993</v>
+        <v>71.209000000000003</v>
       </c>
       <c r="W32">
-        <v>-54.404000000000003</v>
+        <v>-18.515000000000001</v>
       </c>
       <c r="X32">
-        <v>-9.9220000000000006</v>
+        <v>6.2839999999999998</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="AA32">
-        <v>99.149000000000001</v>
+        <v>67.031999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>95.716999999999999</v>
+        <v>57.683999999999997</v>
       </c>
       <c r="D33">
-        <v>907.548</v>
+        <v>617.53800000000001</v>
       </c>
       <c r="E33">
-        <v>705.56</v>
+        <v>458.49799999999999</v>
       </c>
       <c r="F33">
-        <v>391.28199999999998</v>
+        <v>246.739</v>
       </c>
       <c r="G33">
-        <v>6946.8270000000002</v>
+        <v>1239.4090000000001</v>
       </c>
       <c r="H33">
-        <v>9615.5419999999995</v>
+        <v>2775.7339999999999</v>
       </c>
       <c r="I33">
-        <v>312.23599999999999</v>
+        <v>115.511</v>
       </c>
       <c r="J33">
-        <v>4331.2420000000002</v>
+        <v>1131.4179999999999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>8.6310000000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>758.45600000000002</v>
+        <v>420.67200000000003</v>
       </c>
       <c r="O33">
-        <v>5577.5929999999998</v>
+        <v>2051.7020000000002</v>
       </c>
       <c r="P33">
-        <v>4377.2269999999999</v>
+        <v>1190.049</v>
       </c>
       <c r="Q33">
-        <v>4952.0360000000001</v>
+        <v>-10.754</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4037.9490000000001</v>
+        <v>724.03200000000004</v>
       </c>
       <c r="U33">
-        <v>5274.4589999999998</v>
+        <v>108.736</v>
       </c>
       <c r="V33">
-        <v>146.78899999999999</v>
+        <v>57.648000000000003</v>
       </c>
       <c r="W33">
-        <v>-54.494</v>
+        <v>-18.071000000000002</v>
       </c>
       <c r="X33">
-        <v>4845.6319999999996</v>
+        <v>-41.201000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1.716</v>
       </c>
       <c r="AA33">
-        <v>95.715999999999994</v>
+        <v>57.683999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>13.021000000000001</v>
+        <v>48.969000000000001</v>
       </c>
       <c r="D34">
-        <v>1219.047</v>
+        <v>539.10299999999995</v>
       </c>
       <c r="E34">
-        <v>937.76499999999999</v>
+        <v>400.971</v>
       </c>
       <c r="F34">
-        <v>499.22</v>
+        <v>214.63800000000001</v>
       </c>
       <c r="G34">
-        <v>2941.86</v>
+        <v>1202.4159999999999</v>
       </c>
       <c r="H34">
-        <v>12889.395</v>
+        <v>2749.913</v>
       </c>
       <c r="I34">
-        <v>471.38200000000001</v>
+        <v>114.997</v>
       </c>
       <c r="J34">
-        <v>4504.4170000000004</v>
+        <v>1153.672</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>51.981999999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1128.3109999999999</v>
+        <v>451.041</v>
       </c>
       <c r="O34">
-        <v>6764.2150000000001</v>
+        <v>2169.2710000000002</v>
       </c>
       <c r="P34">
-        <v>4553.0590000000002</v>
+        <v>1255.654</v>
       </c>
       <c r="Q34">
-        <v>-4625.9369999999999</v>
+        <v>69.730999999999995</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>13209</v>
+        <v>5338</v>
       </c>
       <c r="T34">
-        <v>6125.18</v>
+        <v>580.64200000000005</v>
       </c>
       <c r="U34">
-        <v>634.89700000000005</v>
+        <v>178.46700000000001</v>
       </c>
       <c r="V34">
-        <v>235.61699999999999</v>
+        <v>84.114999999999995</v>
       </c>
       <c r="W34">
-        <v>-66.900000000000006</v>
+        <v>-19.651</v>
       </c>
       <c r="X34">
-        <v>49.607999999999997</v>
+        <v>23.125</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1.4990000000000001</v>
       </c>
       <c r="AA34">
-        <v>13.021000000000001</v>
+        <v>48.969000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>108.82899999999999</v>
+        <v>47.197000000000003</v>
       </c>
       <c r="D35">
-        <v>1297.402</v>
+        <v>559.63</v>
       </c>
       <c r="E35">
-        <v>1003.965</v>
+        <v>418.38400000000001</v>
       </c>
       <c r="F35">
-        <v>539.67100000000005</v>
+        <v>222.065</v>
       </c>
       <c r="G35">
-        <v>2925.8249999999998</v>
+        <v>1052.057</v>
       </c>
       <c r="H35">
-        <v>13211.42</v>
+        <v>2619.6320000000001</v>
       </c>
       <c r="I35">
-        <v>476.41300000000001</v>
+        <v>95.302999999999997</v>
       </c>
       <c r="J35">
-        <v>4421.43</v>
+        <v>1124.903</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>40.465000000000003</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-7.2640000000000002</v>
       </c>
       <c r="M35">
-        <v>-36.155999999999999</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1144.134</v>
+        <v>346.673</v>
       </c>
       <c r="O35">
-        <v>6942.2309999999998</v>
+        <v>1974.039</v>
       </c>
       <c r="P35">
-        <v>4809.2</v>
+        <v>1215.3679999999999</v>
       </c>
       <c r="Q35">
-        <v>-151.393</v>
+        <v>-90.878</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6269.1890000000003</v>
+        <v>645.59299999999996</v>
       </c>
       <c r="U35">
-        <v>483.50400000000002</v>
+        <v>87.588999999999999</v>
       </c>
       <c r="V35">
-        <v>47.231999999999999</v>
+        <v>-14.368</v>
       </c>
       <c r="W35">
-        <v>-77.778999999999996</v>
+        <v>-39.338000000000001</v>
       </c>
       <c r="X35">
-        <v>-112.179</v>
+        <v>-48.222000000000001</v>
       </c>
       <c r="Y35">
-        <v>266.56900000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="AA35">
-        <v>108.82899999999999</v>
+        <v>47.197000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>136.37700000000001</v>
+        <v>48.082000000000001</v>
       </c>
       <c r="D36">
-        <v>1291.568</v>
+        <v>568.26099999999997</v>
       </c>
       <c r="E36">
-        <v>1046.028</v>
+        <v>471.767</v>
       </c>
       <c r="F36">
-        <v>546.93799999999999</v>
+        <v>227.91399999999999</v>
       </c>
       <c r="G36">
-        <v>2990.0259999999998</v>
+        <v>1187.211</v>
       </c>
       <c r="H36">
-        <v>13348.082</v>
+        <v>2775.538</v>
       </c>
       <c r="I36">
-        <v>463.55500000000001</v>
+        <v>117.892</v>
       </c>
       <c r="J36">
-        <v>4428.6750000000002</v>
+        <v>1140.9290000000001</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>23.350999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1149.5329999999999</v>
+        <v>408.40899999999999</v>
       </c>
       <c r="O36">
-        <v>7022.5550000000003</v>
+        <v>2056.317</v>
       </c>
       <c r="P36">
-        <v>4827.0360000000001</v>
+        <v>1214.28</v>
       </c>
       <c r="Q36">
-        <v>-42.308999999999997</v>
+        <v>76.225999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6325.527</v>
+        <v>719.221</v>
       </c>
       <c r="U36">
-        <v>426.71699999999998</v>
+        <v>163.815</v>
       </c>
       <c r="V36">
-        <v>137.684</v>
+        <v>101.905</v>
       </c>
       <c r="W36">
-        <v>-77.799000000000007</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-122.254</v>
+        <v>-17.454000000000001</v>
       </c>
       <c r="Y36">
-        <v>274.49200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1.6839999999999999</v>
       </c>
       <c r="AA36">
-        <v>136.37700000000001</v>
+        <v>48.082999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>127.124</v>
+        <v>52.798999999999999</v>
       </c>
       <c r="D37">
-        <v>1267.345</v>
+        <v>612.63400000000001</v>
       </c>
       <c r="E37">
-        <v>942.70500000000004</v>
+        <v>477.21800000000002</v>
       </c>
       <c r="F37">
-        <v>530.63300000000004</v>
+        <v>248.85400000000001</v>
       </c>
       <c r="G37">
-        <v>2898.558</v>
+        <v>1191.7809999999999</v>
       </c>
       <c r="H37">
-        <v>12984.724</v>
+        <v>2790.761</v>
       </c>
       <c r="I37">
-        <v>416.56299999999999</v>
+        <v>140.59700000000001</v>
       </c>
       <c r="J37">
-        <v>4008.134</v>
+        <v>1156.027</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1412.4490000000001</v>
+        <v>357.16699999999997</v>
       </c>
       <c r="O37">
-        <v>6803.1909999999998</v>
+        <v>2027.973</v>
       </c>
       <c r="P37">
-        <v>4697.6899999999996</v>
+        <v>1157.6089999999999</v>
       </c>
       <c r="Q37">
-        <v>49.234000000000002</v>
+        <v>-9.2430000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6181.5330000000004</v>
+        <v>762.78800000000001</v>
       </c>
       <c r="U37">
-        <v>494.89699999999999</v>
+        <v>154.572</v>
       </c>
       <c r="V37">
-        <v>198.119</v>
+        <v>112.535</v>
       </c>
       <c r="W37">
-        <v>-77.899000000000001</v>
+        <v>-39.103000000000002</v>
       </c>
       <c r="X37">
-        <v>-131.375</v>
+        <v>-113.747</v>
       </c>
       <c r="Y37">
-        <v>267.70400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1.4059999999999999</v>
       </c>
       <c r="AA37">
-        <v>127.124</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>83.543000000000006</v>
+        <v>47.448</v>
       </c>
       <c r="D38">
-        <v>1283.769</v>
+        <v>585.63300000000004</v>
       </c>
       <c r="E38">
-        <v>876.197</v>
+        <v>444.26499999999999</v>
       </c>
       <c r="F38">
-        <v>503</v>
+        <v>235.41200000000001</v>
       </c>
       <c r="G38">
-        <v>2942.5439999999999</v>
+        <v>1128.066</v>
       </c>
       <c r="H38">
-        <v>13287.411</v>
+        <v>2644.7739999999999</v>
       </c>
       <c r="I38">
-        <v>510.37200000000001</v>
+        <v>161.02699999999999</v>
       </c>
       <c r="J38">
-        <v>3997.4380000000001</v>
+        <v>934.74900000000002</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>76.78</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1552.19</v>
+        <v>484.45400000000001</v>
       </c>
       <c r="O38">
-        <v>6958.82</v>
+        <v>1872.864</v>
       </c>
       <c r="P38">
-        <v>4682.1499999999996</v>
+        <v>1011.529</v>
       </c>
       <c r="Q38">
-        <v>119.89100000000001</v>
+        <v>-74.436999999999998</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>13668</v>
+        <v>5377</v>
       </c>
       <c r="T38">
-        <v>6328.5910000000003</v>
+        <v>771.91</v>
       </c>
       <c r="U38">
-        <v>606.82299999999998</v>
+        <v>80.135000000000005</v>
       </c>
       <c r="V38">
-        <v>315.93</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="W38">
-        <v>-80.033000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="X38">
-        <v>-139.249</v>
+        <v>-132.76900000000001</v>
       </c>
       <c r="Y38">
-        <v>255.892</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="AA38">
-        <v>83.543000000000006</v>
+        <v>47.448</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>124.607</v>
+        <v>63.789000000000001</v>
       </c>
       <c r="D39">
-        <v>1347.317</v>
+        <v>653.90899999999999</v>
       </c>
       <c r="E39">
-        <v>943.11400000000003</v>
+        <v>468.82</v>
       </c>
       <c r="F39">
-        <v>566.529</v>
+        <v>270.20699999999999</v>
       </c>
       <c r="G39">
-        <v>2818.2939999999999</v>
+        <v>1170.934</v>
       </c>
       <c r="H39">
-        <v>12689.075999999999</v>
+        <v>2678.2260000000001</v>
       </c>
       <c r="I39">
-        <v>456.15600000000001</v>
+        <v>154.45099999999999</v>
       </c>
       <c r="J39">
-        <v>3946.9050000000002</v>
+        <v>934.07600000000002</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>80.781999999999996</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-11.584</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1426.9949999999999</v>
+        <v>475.34199999999998</v>
       </c>
       <c r="O39">
-        <v>6745.6890000000003</v>
+        <v>1861.355</v>
       </c>
       <c r="P39">
-        <v>4332.4740000000002</v>
+        <v>1014.8579999999999</v>
       </c>
       <c r="Q39">
-        <v>-175.56100000000001</v>
+        <v>9.6829999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5943.3869999999997</v>
+        <v>816.87099999999998</v>
       </c>
       <c r="U39">
-        <v>433.24599999999998</v>
+        <v>89.817999999999998</v>
       </c>
       <c r="V39">
-        <v>16.945</v>
+        <v>32.392000000000003</v>
       </c>
       <c r="W39">
-        <v>-80.037999999999997</v>
+        <v>-19.786000000000001</v>
       </c>
       <c r="X39">
-        <v>-107.22799999999999</v>
+        <v>-7.0629999999999997</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1.8560000000000001</v>
       </c>
       <c r="AA39">
-        <v>124.607</v>
+        <v>63.789000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>86.203999999999994</v>
+        <v>67.152000000000001</v>
       </c>
       <c r="D40">
-        <v>1198.7729999999999</v>
+        <v>665.8</v>
       </c>
       <c r="E40">
-        <v>961.56799999999998</v>
+        <v>475.99599999999998</v>
       </c>
       <c r="F40">
-        <v>482.18400000000003</v>
+        <v>285.00099999999998</v>
       </c>
       <c r="G40">
-        <v>3012.585</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="H40">
-        <v>12989.13</v>
+        <v>2726.8820000000001</v>
       </c>
       <c r="I40">
-        <v>550.53300000000002</v>
+        <v>155.05600000000001</v>
       </c>
       <c r="J40">
-        <v>4181.701</v>
+        <v>934.6</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>48.738999999999997</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1344.172</v>
+        <v>495.35899999999998</v>
       </c>
       <c r="O40">
-        <v>6889.68</v>
+        <v>1878.8510000000001</v>
       </c>
       <c r="P40">
-        <v>4366.9009999999998</v>
+        <v>983.33900000000006</v>
       </c>
       <c r="Q40">
-        <v>63.55</v>
+        <v>20.734000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>6099.45</v>
+        <v>848.03099999999995</v>
       </c>
       <c r="U40">
-        <v>497.41199999999998</v>
+        <v>110.55200000000001</v>
       </c>
       <c r="V40">
-        <v>191.45099999999999</v>
+        <v>95.248000000000005</v>
       </c>
       <c r="W40">
-        <v>-80.061999999999998</v>
+        <v>-19.844999999999999</v>
       </c>
       <c r="X40">
-        <v>-107.361</v>
+        <v>-51.530999999999999</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="AA40">
-        <v>86.203999999999994</v>
+        <v>67.152000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>84.828000000000003</v>
+        <v>77.039000000000001</v>
       </c>
       <c r="D41">
-        <v>1268.076</v>
+        <v>673.28300000000002</v>
       </c>
       <c r="E41">
-        <v>928.625</v>
+        <v>511.97300000000001</v>
       </c>
       <c r="F41">
-        <v>524.53</v>
+        <v>285.048</v>
       </c>
       <c r="G41">
-        <v>2946.2049999999999</v>
+        <v>1328.15</v>
       </c>
       <c r="H41">
-        <v>13085.374</v>
+        <v>2864.3069999999998</v>
       </c>
       <c r="I41">
-        <v>505.25900000000001</v>
+        <v>169.65199999999999</v>
       </c>
       <c r="J41">
-        <v>3890.7620000000002</v>
+        <v>810.71900000000005</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>37.872</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1616.259</v>
+        <v>643.59699999999998</v>
       </c>
       <c r="O41">
-        <v>6895.0540000000001</v>
+        <v>1913.4349999999999</v>
       </c>
       <c r="P41">
-        <v>4331.7240000000002</v>
+        <v>948.59100000000001</v>
       </c>
       <c r="Q41">
-        <v>-28.408000000000001</v>
+        <v>4.3330000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6190.32</v>
+        <v>950.87199999999996</v>
       </c>
       <c r="U41">
-        <v>469.84</v>
+        <v>114.88500000000001</v>
       </c>
       <c r="V41">
-        <v>206.63200000000001</v>
+        <v>80.685000000000002</v>
       </c>
       <c r="W41">
-        <v>-80.173000000000002</v>
+        <v>-19.974</v>
       </c>
       <c r="X41">
-        <v>-203.42</v>
+        <v>-59.991999999999997</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1.1479999999999999</v>
       </c>
       <c r="AA41">
-        <v>84.828000000000003</v>
+        <v>77.037999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>55.576999999999998</v>
+      </c>
+      <c r="D42">
+        <v>629.86900000000003</v>
+      </c>
+      <c r="E42">
+        <v>451.80399999999997</v>
+      </c>
+      <c r="F42">
+        <v>252.346</v>
+      </c>
+      <c r="G42">
+        <v>1325.1949999999999</v>
+      </c>
+      <c r="H42">
+        <v>2872.4549999999999</v>
+      </c>
+      <c r="I42">
+        <v>200.15299999999999</v>
+      </c>
+      <c r="J42">
+        <v>787.66800000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>660.95100000000002</v>
+      </c>
+      <c r="O42">
+        <v>1869.3</v>
+      </c>
+      <c r="P42">
+        <v>921.56700000000001</v>
+      </c>
+      <c r="Q42">
+        <v>16.446999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>5514</v>
+      </c>
+      <c r="T42">
+        <v>1003.155</v>
+      </c>
+      <c r="U42">
+        <v>131.33199999999999</v>
+      </c>
+      <c r="V42">
+        <v>106.81100000000001</v>
+      </c>
+      <c r="W42">
+        <v>-21.576000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-38.158000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>55.576999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>84.043000000000006</v>
+      </c>
+      <c r="D43">
+        <v>714.27099999999996</v>
+      </c>
+      <c r="E43">
+        <v>520.07799999999997</v>
+      </c>
+      <c r="F43">
+        <v>297.45999999999998</v>
+      </c>
+      <c r="G43">
+        <v>1387.6189999999999</v>
+      </c>
+      <c r="H43">
+        <v>2946.5459999999998</v>
+      </c>
+      <c r="I43">
+        <v>185.20500000000001</v>
+      </c>
+      <c r="J43">
+        <v>786.98</v>
+      </c>
+      <c r="K43">
+        <v>63.139000000000003</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>633.97199999999998</v>
+      </c>
+      <c r="O43">
+        <v>1843.7</v>
+      </c>
+      <c r="P43">
+        <v>972.60599999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-19.361999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1102.846</v>
+      </c>
+      <c r="U43">
+        <v>111.97</v>
+      </c>
+      <c r="V43">
+        <v>-34.944000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-21.657</v>
+      </c>
+      <c r="X43">
+        <v>34.21</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>84.043000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>76.188000000000002</v>
+      </c>
+      <c r="D44">
+        <v>715.58900000000006</v>
+      </c>
+      <c r="E44">
+        <v>545.54999999999995</v>
+      </c>
+      <c r="F44">
+        <v>284.423</v>
+      </c>
+      <c r="G44">
+        <v>1439.23</v>
+      </c>
+      <c r="H44">
+        <v>3008.6010000000001</v>
+      </c>
+      <c r="I44">
+        <v>166.43799999999999</v>
+      </c>
+      <c r="J44">
+        <v>767.35299999999995</v>
+      </c>
+      <c r="K44">
+        <v>93.838999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>628.65200000000004</v>
+      </c>
+      <c r="O44">
+        <v>1819.8869999999999</v>
+      </c>
+      <c r="P44">
+        <v>983.69799999999998</v>
+      </c>
+      <c r="Q44">
+        <v>11.461</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1188.7139999999999</v>
+      </c>
+      <c r="U44">
+        <v>123.431</v>
+      </c>
+      <c r="V44">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="W44">
+        <v>-21.692</v>
+      </c>
+      <c r="X44">
+        <v>-0.246</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>76.188000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>82.241</v>
+      </c>
+      <c r="D45">
+        <v>713.77499999999998</v>
+      </c>
+      <c r="E45">
+        <v>518.96699999999998</v>
+      </c>
+      <c r="F45">
+        <v>278.375</v>
+      </c>
+      <c r="G45">
+        <v>1383.4369999999999</v>
+      </c>
+      <c r="H45">
+        <v>2953.529</v>
+      </c>
+      <c r="I45">
+        <v>180.93100000000001</v>
+      </c>
+      <c r="J45">
+        <v>757.07</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>575.26199999999994</v>
+      </c>
+      <c r="O45">
+        <v>1755.0650000000001</v>
+      </c>
+      <c r="P45">
+        <v>911.72199999999998</v>
+      </c>
+      <c r="Q45">
+        <v>-16.148</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1198.4639999999999</v>
+      </c>
+      <c r="U45">
+        <v>107.283</v>
+      </c>
+      <c r="V45">
+        <v>114.581</v>
+      </c>
+      <c r="W45">
+        <v>-21.824999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-96.304000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>82.241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>24.393999999999998</v>
+      </c>
+      <c r="D46">
+        <v>644.38300000000004</v>
+      </c>
+      <c r="E46">
+        <v>472.346</v>
+      </c>
+      <c r="F46">
+        <v>244.398</v>
+      </c>
+      <c r="G46">
+        <v>1317.22</v>
+      </c>
+      <c r="H46">
+        <v>2965.5810000000001</v>
+      </c>
+      <c r="I46">
+        <v>208.75899999999999</v>
+      </c>
+      <c r="J46">
+        <v>778.24800000000005</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>564.56600000000003</v>
+      </c>
+      <c r="O46">
+        <v>1858.174</v>
+      </c>
+      <c r="P46">
+        <v>894.93600000000004</v>
+      </c>
+      <c r="Q46">
+        <v>-19.004000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5644</v>
+      </c>
+      <c r="T46">
+        <v>1107.4069999999999</v>
+      </c>
+      <c r="U46">
+        <v>88.278999999999996</v>
+      </c>
+      <c r="V46">
+        <v>72.463999999999999</v>
+      </c>
+      <c r="W46">
+        <v>-25.076000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-38.366999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>24.393999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>81.055999999999997</v>
+      </c>
+      <c r="D47">
+        <v>710.61599999999999</v>
+      </c>
+      <c r="E47">
+        <v>521.60599999999999</v>
+      </c>
+      <c r="F47">
+        <v>285.399</v>
+      </c>
+      <c r="G47">
+        <v>1345.365</v>
+      </c>
+      <c r="H47">
+        <v>3013.3980000000001</v>
+      </c>
+      <c r="I47">
+        <v>189.22300000000001</v>
+      </c>
+      <c r="J47">
+        <v>777.95299999999997</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-16.193999999999999</v>
+      </c>
+      <c r="N47">
+        <v>520.85199999999998</v>
+      </c>
+      <c r="O47">
+        <v>1812.3420000000001</v>
+      </c>
+      <c r="P47">
+        <v>870.54700000000003</v>
+      </c>
+      <c r="Q47">
+        <v>-11.753</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1201.056</v>
+      </c>
+      <c r="U47">
+        <v>76.525999999999996</v>
+      </c>
+      <c r="V47">
+        <v>52.636000000000003</v>
+      </c>
+      <c r="W47">
+        <v>-25.085999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-38.863999999999997</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>81.055999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>88.594999999999999</v>
+      </c>
+      <c r="D48">
+        <v>721.31700000000001</v>
+      </c>
+      <c r="E48">
+        <v>516.59799999999996</v>
+      </c>
+      <c r="F48">
+        <v>301.54300000000001</v>
+      </c>
+      <c r="G48">
+        <v>1364.2529999999999</v>
+      </c>
+      <c r="H48">
+        <v>3025.3069999999998</v>
+      </c>
+      <c r="I48">
+        <v>169.673</v>
+      </c>
+      <c r="J48">
+        <v>777.404</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>507.423</v>
+      </c>
+      <c r="O48">
+        <v>1798.796</v>
+      </c>
+      <c r="P48">
+        <v>864.88199999999995</v>
+      </c>
+      <c r="Q48">
+        <v>28.111000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1226.511</v>
+      </c>
+      <c r="U48">
+        <v>104.637</v>
+      </c>
+      <c r="V48">
+        <v>82.73</v>
+      </c>
+      <c r="W48">
+        <v>-25.12</v>
+      </c>
+      <c r="X48">
+        <v>-25.463000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>88.596000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="D49">
+        <v>708.95500000000004</v>
+      </c>
+      <c r="E49">
+        <v>534.75800000000004</v>
+      </c>
+      <c r="F49">
+        <v>301.524</v>
+      </c>
+      <c r="G49">
+        <v>1388.9639999999999</v>
+      </c>
+      <c r="H49">
+        <v>3059.9050000000002</v>
+      </c>
+      <c r="I49">
+        <v>160.95599999999999</v>
+      </c>
+      <c r="J49">
+        <v>676.95799999999997</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>652.91</v>
+      </c>
+      <c r="O49">
+        <v>1809.095</v>
+      </c>
+      <c r="P49">
+        <v>903.68</v>
+      </c>
+      <c r="Q49">
+        <v>-7.4560000000000004</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1250.81</v>
+      </c>
+      <c r="U49">
+        <v>97.180999999999997</v>
+      </c>
+      <c r="V49">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="W49">
+        <v>-25.251999999999999</v>
+      </c>
+      <c r="X49">
+        <v>11.829000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>16.363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>68.117999999999995</v>
+      </c>
+      <c r="D50">
+        <v>680.55799999999999</v>
+      </c>
+      <c r="E50">
+        <v>499.44299999999998</v>
+      </c>
+      <c r="F50">
+        <v>287.06799999999998</v>
+      </c>
+      <c r="G50">
+        <v>1572.6869999999999</v>
+      </c>
+      <c r="H50">
+        <v>3246.192</v>
+      </c>
+      <c r="I50">
+        <v>199.27199999999999</v>
+      </c>
+      <c r="J50">
+        <v>881.10400000000004</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>629.87800000000004</v>
+      </c>
+      <c r="O50">
+        <v>1993.6369999999999</v>
+      </c>
+      <c r="P50">
+        <v>1031.175</v>
+      </c>
+      <c r="Q50">
+        <v>227.24100000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5715</v>
+      </c>
+      <c r="T50">
+        <v>1252.5550000000001</v>
+      </c>
+      <c r="U50">
+        <v>324.42200000000003</v>
+      </c>
+      <c r="V50">
+        <v>186.21799999999999</v>
+      </c>
+      <c r="W50">
+        <v>-55.484999999999999</v>
+      </c>
+      <c r="X50">
+        <v>77.902000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>68.117999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>90.697000000000003</v>
+      </c>
+      <c r="D51">
+        <v>727.83600000000001</v>
+      </c>
+      <c r="E51">
+        <v>527.56399999999996</v>
+      </c>
+      <c r="F51">
+        <v>312.55799999999999</v>
+      </c>
+      <c r="G51">
+        <v>1534.6980000000001</v>
+      </c>
+      <c r="H51">
+        <v>3200.549</v>
+      </c>
+      <c r="I51">
+        <v>159.36699999999999</v>
+      </c>
+      <c r="J51">
+        <v>915.78200000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="N51">
+        <v>540.26</v>
+      </c>
+      <c r="O51">
+        <v>1889.6969999999999</v>
+      </c>
+      <c r="P51">
+        <v>1017.182</v>
+      </c>
+      <c r="Q51">
+        <v>-24.376000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1310.8520000000001</v>
+      </c>
+      <c r="U51">
+        <v>300.04599999999999</v>
+      </c>
+      <c r="V51">
+        <v>18.719000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-11.88</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>90.697000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>102.32299999999999</v>
+      </c>
+      <c r="D52">
+        <v>757.63499999999999</v>
+      </c>
+      <c r="E52">
+        <v>541.60699999999997</v>
+      </c>
+      <c r="F52">
+        <v>334.14800000000002</v>
+      </c>
+      <c r="G52">
+        <v>1633.893</v>
+      </c>
+      <c r="H52">
+        <v>3308.9209999999998</v>
+      </c>
+      <c r="I52">
+        <v>176.73099999999999</v>
+      </c>
+      <c r="J52">
+        <v>932.79600000000005</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>566.82399999999996</v>
+      </c>
+      <c r="O52">
+        <v>1934.491</v>
+      </c>
+      <c r="P52">
+        <v>1032.971</v>
+      </c>
+      <c r="Q52">
+        <v>65.850999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1374.43</v>
+      </c>
+      <c r="U52">
+        <v>365.89699999999999</v>
+      </c>
+      <c r="V52">
+        <v>99.323999999999998</v>
+      </c>
+      <c r="W52">
+        <v>-27.733000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-15.35</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>102.322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>99.045000000000002</v>
+      </c>
+      <c r="D53">
+        <v>742.25599999999997</v>
+      </c>
+      <c r="E53">
+        <v>553.88400000000001</v>
+      </c>
+      <c r="F53">
+        <v>327.97199999999998</v>
+      </c>
+      <c r="G53">
+        <v>1633.867</v>
+      </c>
+      <c r="H53">
+        <v>3324.511</v>
+      </c>
+      <c r="I53">
+        <v>176.238</v>
+      </c>
+      <c r="J53">
+        <v>933.46400000000006</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>509.57600000000002</v>
+      </c>
+      <c r="O53">
+        <v>1884.981</v>
+      </c>
+      <c r="P53">
+        <v>933.60799999999995</v>
+      </c>
+      <c r="Q53">
+        <v>-22.748000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1439.53</v>
+      </c>
+      <c r="U53">
+        <v>343.149</v>
+      </c>
+      <c r="V53">
+        <v>139.273</v>
+      </c>
+      <c r="W53">
+        <v>-27.792000000000002</v>
+      </c>
+      <c r="X53">
+        <v>-138.95099999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>99.046000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>61.478999999999999</v>
+      </c>
+      <c r="D54">
+        <v>725.16899999999998</v>
+      </c>
+      <c r="E54">
+        <v>524.49300000000005</v>
+      </c>
+      <c r="F54">
+        <v>317.59399999999999</v>
+      </c>
+      <c r="G54">
+        <v>1652.903</v>
+      </c>
+      <c r="H54">
+        <v>3331.7310000000002</v>
+      </c>
+      <c r="I54">
+        <v>226.733</v>
+      </c>
+      <c r="J54">
+        <v>932.66499999999996</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>560.36599999999999</v>
+      </c>
+      <c r="O54">
+        <v>1864.68</v>
+      </c>
+      <c r="P54">
+        <v>932.81399999999996</v>
+      </c>
+      <c r="Q54">
+        <v>62.356000000000002</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6000</v>
+      </c>
+      <c r="T54">
+        <v>1467.0509999999999</v>
+      </c>
+      <c r="U54">
+        <v>405.505</v>
+      </c>
+      <c r="V54">
+        <v>150.24600000000001</v>
+      </c>
+      <c r="W54">
+        <v>-31.821999999999999</v>
+      </c>
+      <c r="X54">
+        <v>-50.856999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>61.478999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>106.70699999999999</v>
+      </c>
+      <c r="D55">
+        <v>770.22400000000005</v>
+      </c>
+      <c r="E55">
+        <v>574.678</v>
+      </c>
+      <c r="F55">
+        <v>344.03100000000001</v>
+      </c>
+      <c r="G55">
+        <v>1569.8510000000001</v>
+      </c>
+      <c r="H55">
+        <v>3321.3530000000001</v>
+      </c>
+      <c r="I55">
+        <v>208.995</v>
+      </c>
+      <c r="J55">
+        <v>931.63499999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>484.541</v>
+      </c>
+      <c r="O55">
+        <v>1800.415</v>
+      </c>
+      <c r="P55">
+        <v>933.92600000000004</v>
+      </c>
+      <c r="Q55">
+        <v>-136.92099999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1520.9380000000001</v>
+      </c>
+      <c r="U55">
+        <v>268.584</v>
+      </c>
+      <c r="V55">
+        <v>34.993000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-31.742999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-49.328000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>106.70699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>110.285</v>
+      </c>
+      <c r="D56">
+        <v>788.41399999999999</v>
+      </c>
+      <c r="E56">
+        <v>583.22</v>
+      </c>
+      <c r="F56">
+        <v>355.76</v>
+      </c>
+      <c r="G56">
+        <v>1644.048</v>
+      </c>
+      <c r="H56">
+        <v>3400.5329999999999</v>
+      </c>
+      <c r="I56">
+        <v>195.251</v>
+      </c>
+      <c r="J56">
+        <v>932.62099999999998</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>468.65</v>
+      </c>
+      <c r="O56">
+        <v>1798.5889999999999</v>
+      </c>
+      <c r="P56">
+        <v>935.673</v>
+      </c>
+      <c r="Q56">
+        <v>58.268999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1601.944</v>
+      </c>
+      <c r="U56">
+        <v>326.85300000000001</v>
+      </c>
+      <c r="V56">
+        <v>119.03700000000001</v>
+      </c>
+      <c r="W56">
+        <v>-31.673999999999999</v>
+      </c>
+      <c r="X56">
+        <v>-40.296999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>110.285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>107.416</v>
+      </c>
+      <c r="D57">
+        <v>773.81299999999999</v>
+      </c>
+      <c r="E57">
+        <v>562.61699999999996</v>
+      </c>
+      <c r="F57">
+        <v>340.39299999999997</v>
+      </c>
+      <c r="G57">
+        <v>1712.6089999999999</v>
+      </c>
+      <c r="H57">
+        <v>3476.509</v>
+      </c>
+      <c r="I57">
+        <v>207.227</v>
+      </c>
+      <c r="J57">
+        <v>933.625</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>516.85400000000004</v>
+      </c>
+      <c r="O57">
+        <v>1832.855</v>
+      </c>
+      <c r="P57">
+        <v>943.95100000000002</v>
+      </c>
+      <c r="Q57">
+        <v>77.983000000000004</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1643.654</v>
+      </c>
+      <c r="U57">
+        <v>404.83600000000001</v>
+      </c>
+      <c r="V57">
+        <v>163.47300000000001</v>
+      </c>
+      <c r="W57">
+        <v>-31.696000000000002</v>
+      </c>
+      <c r="X57">
+        <v>-38.497</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>107.41500000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>90.135000000000005</v>
+      </c>
+      <c r="D58">
+        <v>756.08199999999999</v>
+      </c>
+      <c r="E58">
+        <v>493.76799999999997</v>
+      </c>
+      <c r="F58">
+        <v>329.60700000000003</v>
+      </c>
+      <c r="G58">
+        <v>1710.027</v>
+      </c>
+      <c r="H58">
+        <v>3494.6210000000001</v>
+      </c>
+      <c r="I58">
+        <v>216.03800000000001</v>
+      </c>
+      <c r="J58">
+        <v>934.23199999999997</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>518.80799999999999</v>
+      </c>
+      <c r="O58">
+        <v>1971.932</v>
+      </c>
+      <c r="P58">
+        <v>942.322</v>
+      </c>
+      <c r="Q58">
+        <v>73.736999999999995</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6211</v>
+      </c>
+      <c r="T58">
+        <v>1522.6890000000001</v>
+      </c>
+      <c r="U58">
+        <v>478.57299999999998</v>
+      </c>
+      <c r="V58">
+        <v>200.887</v>
+      </c>
+      <c r="W58">
+        <v>-38.125999999999998</v>
+      </c>
+      <c r="X58">
+        <v>-74.207999999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>90.135000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>128.25800000000001</v>
+      </c>
+      <c r="D59">
+        <v>774.90700000000004</v>
+      </c>
+      <c r="E59">
+        <v>525.26</v>
+      </c>
+      <c r="F59">
+        <v>346.55799999999999</v>
+      </c>
+      <c r="G59">
+        <v>1755.11</v>
+      </c>
+      <c r="H59">
+        <v>3507.172</v>
+      </c>
+      <c r="I59">
+        <v>215.91499999999999</v>
+      </c>
+      <c r="J59">
+        <v>935.17</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>487.32</v>
+      </c>
+      <c r="O59">
+        <v>1935.075</v>
+      </c>
+      <c r="P59">
+        <v>943.54899999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-34.884</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1572.097</v>
+      </c>
+      <c r="U59">
+        <v>443.68900000000002</v>
+      </c>
+      <c r="V59">
+        <v>31.475999999999999</v>
+      </c>
+      <c r="W59">
+        <v>-37.970999999999997</v>
+      </c>
+      <c r="X59">
+        <v>-39.542000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>128.25800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>105.374</v>
+      </c>
+      <c r="D60">
+        <v>767.54100000000005</v>
+      </c>
+      <c r="E60">
+        <v>566.41399999999999</v>
+      </c>
+      <c r="F60">
+        <v>346.16500000000002</v>
+      </c>
+      <c r="G60">
+        <v>1722.2539999999999</v>
+      </c>
+      <c r="H60">
+        <v>3653.6280000000002</v>
+      </c>
+      <c r="I60">
+        <v>241.53200000000001</v>
+      </c>
+      <c r="J60">
+        <v>989.19600000000003</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>523.52099999999996</v>
+      </c>
+      <c r="O60">
+        <v>2026.954</v>
+      </c>
+      <c r="P60">
+        <v>997.98900000000003</v>
+      </c>
+      <c r="Q60">
+        <v>-66.435000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1626.674</v>
+      </c>
+      <c r="U60">
+        <v>377.25400000000002</v>
+      </c>
+      <c r="V60">
+        <v>134.84200000000001</v>
+      </c>
+      <c r="W60">
+        <v>-37.956000000000003</v>
+      </c>
+      <c r="X60">
+        <v>-7.4249999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>105.374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>106.44799999999999</v>
+      </c>
+      <c r="D61">
+        <v>765.09199999999998</v>
+      </c>
+      <c r="E61">
+        <v>569.60799999999995</v>
+      </c>
+      <c r="F61">
+        <v>349.87</v>
+      </c>
+      <c r="G61">
+        <v>1638.751</v>
+      </c>
+      <c r="H61">
+        <v>3911.6849999999999</v>
+      </c>
+      <c r="I61">
+        <v>254.34399999999999</v>
+      </c>
+      <c r="J61">
+        <v>1057.992</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>687.32</v>
+      </c>
+      <c r="O61">
+        <v>2315.5360000000001</v>
+      </c>
+      <c r="P61">
+        <v>1195.82</v>
+      </c>
+      <c r="Q61">
+        <v>-104.97799999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1596.1489999999999</v>
+      </c>
+      <c r="U61">
+        <v>272.27600000000001</v>
+      </c>
+      <c r="V61">
+        <v>128.37700000000001</v>
+      </c>
+      <c r="W61">
+        <v>-37.948</v>
+      </c>
+      <c r="X61">
+        <v>113.845</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>106.447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>79.167000000000002</v>
+      </c>
+      <c r="D62">
+        <v>715.649</v>
+      </c>
+      <c r="E62">
+        <v>537.89599999999996</v>
+      </c>
+      <c r="F62">
+        <v>316.94600000000003</v>
+      </c>
+      <c r="G62">
+        <v>1437.1089999999999</v>
+      </c>
+      <c r="H62">
+        <v>3702.01</v>
+      </c>
+      <c r="I62">
+        <v>285.50099999999998</v>
+      </c>
+      <c r="J62">
+        <v>935.37300000000005</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>725.15599999999995</v>
+      </c>
+      <c r="O62">
+        <v>2107.0210000000002</v>
+      </c>
+      <c r="P62">
+        <v>1067.722</v>
+      </c>
+      <c r="Q62">
+        <v>-90.287999999999997</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6732</v>
+      </c>
+      <c r="T62">
+        <v>1594.989</v>
+      </c>
+      <c r="U62">
+        <v>181.988</v>
+      </c>
+      <c r="V62">
+        <v>138.88300000000001</v>
+      </c>
+      <c r="W62">
+        <v>-44.994999999999997</v>
+      </c>
+      <c r="X62">
+        <v>-198.17400000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>79.167000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>118.60299999999999</v>
+      </c>
+      <c r="D63">
+        <v>783.31200000000001</v>
+      </c>
+      <c r="E63">
+        <v>609.58699999999999</v>
+      </c>
+      <c r="F63">
+        <v>361.46699999999998</v>
+      </c>
+      <c r="G63">
+        <v>1891.529</v>
+      </c>
+      <c r="H63">
+        <v>4162.46</v>
+      </c>
+      <c r="I63">
+        <v>276.92899999999997</v>
+      </c>
+      <c r="J63">
+        <v>1369.9549999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-124.602</v>
+      </c>
+      <c r="N63">
+        <v>712.74800000000005</v>
+      </c>
+      <c r="O63">
+        <v>2526.9</v>
+      </c>
+      <c r="P63">
+        <v>1503.6469999999999</v>
+      </c>
+      <c r="Q63">
+        <v>346.88900000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1635.56</v>
+      </c>
+      <c r="U63">
+        <v>528.87699999999995</v>
+      </c>
+      <c r="V63">
+        <v>39.942999999999998</v>
+      </c>
+      <c r="W63">
+        <v>-44.826000000000001</v>
+      </c>
+      <c r="X63">
+        <v>330.95100000000002</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>118.60299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="D64">
+        <v>793.47799999999995</v>
+      </c>
+      <c r="E64">
+        <v>621.16399999999999</v>
+      </c>
+      <c r="F64">
+        <v>366.654</v>
+      </c>
+      <c r="G64">
+        <v>1929.434</v>
+      </c>
+      <c r="H64">
+        <v>4154.6279999999997</v>
+      </c>
+      <c r="I64">
+        <v>255.143</v>
+      </c>
+      <c r="J64">
+        <v>1357.684</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>688.25099999999998</v>
+      </c>
+      <c r="O64">
+        <v>2476.6959999999999</v>
+      </c>
+      <c r="P64">
+        <v>1491.1569999999999</v>
+      </c>
+      <c r="Q64">
+        <v>11.115</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1677.932</v>
+      </c>
+      <c r="U64">
+        <v>539.99199999999996</v>
+      </c>
+      <c r="V64">
+        <v>132.35300000000001</v>
+      </c>
+      <c r="W64">
+        <v>-44.637</v>
+      </c>
+      <c r="X64">
+        <v>-95.572000000000003</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>116.733</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>89.777000000000001</v>
+      </c>
+      <c r="D65">
+        <v>777.00099999999998</v>
+      </c>
+      <c r="E65">
+        <v>587.07399999999996</v>
+      </c>
+      <c r="F65">
+        <v>347.24900000000002</v>
+      </c>
+      <c r="G65">
+        <v>1857.0350000000001</v>
+      </c>
+      <c r="H65">
+        <v>4097.1289999999999</v>
+      </c>
+      <c r="I65">
+        <v>259.20800000000003</v>
+      </c>
+      <c r="J65">
+        <v>1110.201</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>855.92399999999998</v>
+      </c>
+      <c r="O65">
+        <v>2398.931</v>
+      </c>
+      <c r="P65">
+        <v>1367.876</v>
+      </c>
+      <c r="Q65">
+        <v>-41.262</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1698.1980000000001</v>
+      </c>
+      <c r="U65">
+        <v>498.73</v>
+      </c>
+      <c r="V65">
+        <v>169.541</v>
+      </c>
+      <c r="W65">
+        <v>-44.588000000000001</v>
+      </c>
+      <c r="X65">
+        <v>-182.08799999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>89.777000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>79.917000000000002</v>
+      </c>
+      <c r="D66">
+        <v>762.56</v>
+      </c>
+      <c r="E66">
+        <v>550.65800000000002</v>
+      </c>
+      <c r="F66">
+        <v>334.39800000000002</v>
+      </c>
+      <c r="G66">
+        <v>1609.0139999999999</v>
+      </c>
+      <c r="H66">
+        <v>4016.9839999999999</v>
+      </c>
+      <c r="I66">
+        <v>274.815</v>
+      </c>
+      <c r="J66">
+        <v>1066.855</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>898.29700000000003</v>
+      </c>
+      <c r="O66">
+        <v>2385.85</v>
+      </c>
+      <c r="P66">
+        <v>1325.3710000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-174.738</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6932</v>
+      </c>
+      <c r="T66">
+        <v>1631.134</v>
+      </c>
+      <c r="U66">
+        <v>323.99200000000002</v>
+      </c>
+      <c r="V66">
+        <v>208.30199999999999</v>
+      </c>
+      <c r="W66">
+        <v>-50.845999999999997</v>
+      </c>
+      <c r="X66">
+        <v>-87.718000000000004</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>79.917000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>115.764</v>
+      </c>
+      <c r="D67">
+        <v>828.29300000000001</v>
+      </c>
+      <c r="E67">
+        <v>637.52099999999996</v>
+      </c>
+      <c r="F67">
+        <v>369.09300000000002</v>
+      </c>
+      <c r="G67">
+        <v>1711.433</v>
+      </c>
+      <c r="H67">
+        <v>4252.259</v>
+      </c>
+      <c r="I67">
+        <v>277.42099999999999</v>
+      </c>
+      <c r="J67">
+        <v>1186.4169999999999</v>
+      </c>
+      <c r="K67">
+        <v>107.441</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>985.82399999999996</v>
+      </c>
+      <c r="O67">
+        <v>2620.7420000000002</v>
+      </c>
+      <c r="P67">
+        <v>1552.4590000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-23.925000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1631.5170000000001</v>
+      </c>
+      <c r="U67">
+        <v>300.06700000000001</v>
+      </c>
+      <c r="V67">
+        <v>18.495000000000001</v>
+      </c>
+      <c r="W67">
+        <v>-50.677</v>
+      </c>
+      <c r="X67">
+        <v>116.93300000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>115.764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>109.795</v>
+      </c>
+      <c r="D68">
+        <v>842.86099999999999</v>
+      </c>
+      <c r="E68">
+        <v>665.51099999999997</v>
+      </c>
+      <c r="F68">
+        <v>379.13299999999998</v>
+      </c>
+      <c r="G68">
+        <v>1993.9259999999999</v>
+      </c>
+      <c r="H68">
+        <v>4618.875</v>
+      </c>
+      <c r="I68">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="J68">
+        <v>1636.338</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>861.22299999999996</v>
+      </c>
+      <c r="O68">
+        <v>2938.7890000000002</v>
+      </c>
+      <c r="P68">
+        <v>1894.3689999999999</v>
+      </c>
+      <c r="Q68">
+        <v>191.31899999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1680.086</v>
+      </c>
+      <c r="U68">
+        <v>491.38600000000002</v>
+      </c>
+      <c r="V68">
+        <v>39.426000000000002</v>
+      </c>
+      <c r="W68">
+        <v>-50.506999999999998</v>
+      </c>
+      <c r="X68">
+        <v>226.678</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>109.795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>110.261</v>
+      </c>
+      <c r="D69">
+        <v>872.94</v>
+      </c>
+      <c r="E69">
+        <v>691.23900000000003</v>
+      </c>
+      <c r="F69">
+        <v>386.08300000000003</v>
+      </c>
+      <c r="G69">
+        <v>1849.7470000000001</v>
+      </c>
+      <c r="H69">
+        <v>4520.4380000000001</v>
+      </c>
+      <c r="I69">
+        <v>271.19400000000002</v>
+      </c>
+      <c r="J69">
+        <v>1625.502</v>
+      </c>
+      <c r="K69">
+        <v>39.957000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>696.12699999999995</v>
+      </c>
+      <c r="O69">
+        <v>2757.95</v>
+      </c>
+      <c r="P69">
+        <v>1673.951</v>
+      </c>
+      <c r="Q69">
+        <v>-175.38399999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1762.4880000000001</v>
+      </c>
+      <c r="U69">
+        <v>316.00200000000001</v>
+      </c>
+      <c r="V69">
+        <v>141.56800000000001</v>
+      </c>
+      <c r="W69">
+        <v>-50.494</v>
+      </c>
+      <c r="X69">
+        <v>-286.11500000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>110.261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-40.155000000000001</v>
+      </c>
+      <c r="D70">
+        <v>854.625</v>
+      </c>
+      <c r="E70">
+        <v>668.16200000000003</v>
+      </c>
+      <c r="F70">
+        <v>363.79700000000003</v>
+      </c>
+      <c r="G70">
+        <v>1896.5440000000001</v>
+      </c>
+      <c r="H70">
+        <v>4598.9260000000004</v>
+      </c>
+      <c r="I70">
+        <v>338.18799999999999</v>
+      </c>
+      <c r="J70">
+        <v>1632.1859999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>768.76800000000003</v>
+      </c>
+      <c r="O70">
+        <v>2909.6320000000001</v>
+      </c>
+      <c r="P70">
+        <v>1639.152</v>
+      </c>
+      <c r="Q70">
+        <v>52.043999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7299</v>
+      </c>
+      <c r="T70">
+        <v>1689.2940000000001</v>
+      </c>
+      <c r="U70">
+        <v>368.04599999999999</v>
+      </c>
+      <c r="V70">
+        <v>191.267</v>
+      </c>
+      <c r="W70">
+        <v>-54.44</v>
+      </c>
+      <c r="X70">
+        <v>-100.054</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-40.155000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>129.416</v>
+      </c>
+      <c r="D71">
+        <v>930.928</v>
+      </c>
+      <c r="E71">
+        <v>734.37800000000004</v>
+      </c>
+      <c r="F71">
+        <v>406.262</v>
+      </c>
+      <c r="G71">
+        <v>1970.3409999999999</v>
+      </c>
+      <c r="H71">
+        <v>4681.2759999999998</v>
+      </c>
+      <c r="I71">
+        <v>324.262</v>
+      </c>
+      <c r="J71">
+        <v>1676.211</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>716.75199999999995</v>
+      </c>
+      <c r="O71">
+        <v>2902.3139999999999</v>
+      </c>
+      <c r="P71">
+        <v>1716.1990000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-62.77</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1778.962</v>
+      </c>
+      <c r="U71">
+        <v>305.27600000000001</v>
+      </c>
+      <c r="V71">
+        <v>-11.395</v>
+      </c>
+      <c r="W71">
+        <v>-54.42</v>
+      </c>
+      <c r="X71">
+        <v>-14.615</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>129.416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>99.147999999999996</v>
+      </c>
+      <c r="D72">
+        <v>920.01599999999996</v>
+      </c>
+      <c r="E72">
+        <v>723.85500000000002</v>
+      </c>
+      <c r="F72">
+        <v>399.12</v>
+      </c>
+      <c r="G72">
+        <v>2026.58</v>
+      </c>
+      <c r="H72">
+        <v>4673.442</v>
+      </c>
+      <c r="I72">
+        <v>315.65600000000001</v>
+      </c>
+      <c r="J72">
+        <v>1717.1890000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>699.37</v>
+      </c>
+      <c r="O72">
+        <v>2917.239</v>
+      </c>
+      <c r="P72">
+        <v>1752.425</v>
+      </c>
+      <c r="Q72">
+        <v>17.146999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1756.203</v>
+      </c>
+      <c r="U72">
+        <v>322.423</v>
+      </c>
+      <c r="V72">
+        <v>66.563999999999993</v>
+      </c>
+      <c r="W72">
+        <v>-54.404000000000003</v>
+      </c>
+      <c r="X72">
+        <v>-9.9220000000000006</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>99.149000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>95.716999999999999</v>
+      </c>
+      <c r="D73">
+        <v>907.548</v>
+      </c>
+      <c r="E73">
+        <v>705.56</v>
+      </c>
+      <c r="F73">
+        <v>391.28199999999998</v>
+      </c>
+      <c r="G73">
+        <v>6946.8270000000002</v>
+      </c>
+      <c r="H73">
+        <v>9615.5419999999995</v>
+      </c>
+      <c r="I73">
+        <v>312.23599999999999</v>
+      </c>
+      <c r="J73">
+        <v>4331.2420000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>758.45600000000002</v>
+      </c>
+      <c r="O73">
+        <v>5577.5929999999998</v>
+      </c>
+      <c r="P73">
+        <v>4377.2269999999999</v>
+      </c>
+      <c r="Q73">
+        <v>4952.0360000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4037.9490000000001</v>
+      </c>
+      <c r="U73">
+        <v>5274.4589999999998</v>
+      </c>
+      <c r="V73">
+        <v>146.78899999999999</v>
+      </c>
+      <c r="W73">
+        <v>-54.494</v>
+      </c>
+      <c r="X73">
+        <v>4845.6319999999996</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>95.715999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="D74">
+        <v>1219.047</v>
+      </c>
+      <c r="E74">
+        <v>937.76499999999999</v>
+      </c>
+      <c r="F74">
+        <v>499.22</v>
+      </c>
+      <c r="G74">
+        <v>2941.86</v>
+      </c>
+      <c r="H74">
+        <v>12889.395</v>
+      </c>
+      <c r="I74">
+        <v>471.38200000000001</v>
+      </c>
+      <c r="J74">
+        <v>4504.4170000000004</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1128.3109999999999</v>
+      </c>
+      <c r="O74">
+        <v>6764.2150000000001</v>
+      </c>
+      <c r="P74">
+        <v>4553.0590000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-4625.9369999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>13209</v>
+      </c>
+      <c r="T74">
+        <v>6125.18</v>
+      </c>
+      <c r="U74">
+        <v>634.89700000000005</v>
+      </c>
+      <c r="V74">
+        <v>235.61699999999999</v>
+      </c>
+      <c r="W74">
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="X74">
+        <v>49.607999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>13.021000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>108.82899999999999</v>
+      </c>
+      <c r="D75">
+        <v>1297.402</v>
+      </c>
+      <c r="E75">
+        <v>1003.965</v>
+      </c>
+      <c r="F75">
+        <v>539.67100000000005</v>
+      </c>
+      <c r="G75">
+        <v>2925.8249999999998</v>
+      </c>
+      <c r="H75">
+        <v>13211.42</v>
+      </c>
+      <c r="I75">
+        <v>476.41300000000001</v>
+      </c>
+      <c r="J75">
+        <v>4421.43</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-36.155999999999999</v>
+      </c>
+      <c r="N75">
+        <v>1144.134</v>
+      </c>
+      <c r="O75">
+        <v>6942.2309999999998</v>
+      </c>
+      <c r="P75">
+        <v>4809.2</v>
+      </c>
+      <c r="Q75">
+        <v>-151.393</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6269.1890000000003</v>
+      </c>
+      <c r="U75">
+        <v>483.50400000000002</v>
+      </c>
+      <c r="V75">
+        <v>47.231999999999999</v>
+      </c>
+      <c r="W75">
+        <v>-77.778999999999996</v>
+      </c>
+      <c r="X75">
+        <v>-112.179</v>
+      </c>
+      <c r="Y75">
+        <v>266.56900000000002</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>108.82899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>136.37700000000001</v>
+      </c>
+      <c r="D76">
+        <v>1291.568</v>
+      </c>
+      <c r="E76">
+        <v>1046.028</v>
+      </c>
+      <c r="F76">
+        <v>546.93799999999999</v>
+      </c>
+      <c r="G76">
+        <v>2990.0259999999998</v>
+      </c>
+      <c r="H76">
+        <v>13348.082</v>
+      </c>
+      <c r="I76">
+        <v>463.55500000000001</v>
+      </c>
+      <c r="J76">
+        <v>4428.6750000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1149.5329999999999</v>
+      </c>
+      <c r="O76">
+        <v>7022.5550000000003</v>
+      </c>
+      <c r="P76">
+        <v>4827.0360000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-42.308999999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6325.527</v>
+      </c>
+      <c r="U76">
+        <v>426.71699999999998</v>
+      </c>
+      <c r="V76">
+        <v>137.684</v>
+      </c>
+      <c r="W76">
+        <v>-77.799000000000007</v>
+      </c>
+      <c r="X76">
+        <v>-122.254</v>
+      </c>
+      <c r="Y76">
+        <v>274.49200000000002</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>136.37700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>127.124</v>
+      </c>
+      <c r="D77">
+        <v>1267.345</v>
+      </c>
+      <c r="E77">
+        <v>942.70500000000004</v>
+      </c>
+      <c r="F77">
+        <v>530.63300000000004</v>
+      </c>
+      <c r="G77">
+        <v>2898.558</v>
+      </c>
+      <c r="H77">
+        <v>12984.724</v>
+      </c>
+      <c r="I77">
+        <v>416.56299999999999</v>
+      </c>
+      <c r="J77">
+        <v>4008.134</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1412.4490000000001</v>
+      </c>
+      <c r="O77">
+        <v>6803.1909999999998</v>
+      </c>
+      <c r="P77">
+        <v>4697.6899999999996</v>
+      </c>
+      <c r="Q77">
+        <v>49.234000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6181.5330000000004</v>
+      </c>
+      <c r="U77">
+        <v>494.89699999999999</v>
+      </c>
+      <c r="V77">
+        <v>198.119</v>
+      </c>
+      <c r="W77">
+        <v>-77.899000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-131.375</v>
+      </c>
+      <c r="Y77">
+        <v>267.70400000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>127.124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>83.543000000000006</v>
+      </c>
+      <c r="D78">
+        <v>1283.769</v>
+      </c>
+      <c r="E78">
+        <v>876.197</v>
+      </c>
+      <c r="F78">
+        <v>503</v>
+      </c>
+      <c r="G78">
+        <v>2942.5439999999999</v>
+      </c>
+      <c r="H78">
+        <v>13287.411</v>
+      </c>
+      <c r="I78">
+        <v>510.37200000000001</v>
+      </c>
+      <c r="J78">
+        <v>3997.4380000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1552.19</v>
+      </c>
+      <c r="O78">
+        <v>6958.82</v>
+      </c>
+      <c r="P78">
+        <v>4682.1499999999996</v>
+      </c>
+      <c r="Q78">
+        <v>119.89100000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>13668</v>
+      </c>
+      <c r="T78">
+        <v>6328.5910000000003</v>
+      </c>
+      <c r="U78">
+        <v>606.82299999999998</v>
+      </c>
+      <c r="V78">
+        <v>315.93</v>
+      </c>
+      <c r="W78">
+        <v>-80.033000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-139.249</v>
+      </c>
+      <c r="Y78">
+        <v>255.892</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>83.543000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>124.607</v>
+      </c>
+      <c r="D79">
+        <v>1347.317</v>
+      </c>
+      <c r="E79">
+        <v>943.11400000000003</v>
+      </c>
+      <c r="F79">
+        <v>566.529</v>
+      </c>
+      <c r="G79">
+        <v>2818.2939999999999</v>
+      </c>
+      <c r="H79">
+        <v>12689.075999999999</v>
+      </c>
+      <c r="I79">
+        <v>456.15600000000001</v>
+      </c>
+      <c r="J79">
+        <v>3946.9050000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-11.584</v>
+      </c>
+      <c r="N79">
+        <v>1426.9949999999999</v>
+      </c>
+      <c r="O79">
+        <v>6745.6890000000003</v>
+      </c>
+      <c r="P79">
+        <v>4332.4740000000002</v>
+      </c>
+      <c r="Q79">
+        <v>-175.56100000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5943.3869999999997</v>
+      </c>
+      <c r="U79">
+        <v>433.24599999999998</v>
+      </c>
+      <c r="V79">
+        <v>16.945</v>
+      </c>
+      <c r="W79">
+        <v>-80.037999999999997</v>
+      </c>
+      <c r="X79">
+        <v>-107.22799999999999</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>124.607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>86.203999999999994</v>
+      </c>
+      <c r="D80">
+        <v>1198.7729999999999</v>
+      </c>
+      <c r="E80">
+        <v>961.56799999999998</v>
+      </c>
+      <c r="F80">
+        <v>482.18400000000003</v>
+      </c>
+      <c r="G80">
+        <v>3012.585</v>
+      </c>
+      <c r="H80">
+        <v>12989.13</v>
+      </c>
+      <c r="I80">
+        <v>550.53300000000002</v>
+      </c>
+      <c r="J80">
+        <v>4181.701</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1344.172</v>
+      </c>
+      <c r="O80">
+        <v>6889.68</v>
+      </c>
+      <c r="P80">
+        <v>4366.9009999999998</v>
+      </c>
+      <c r="Q80">
+        <v>63.55</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>6099.45</v>
+      </c>
+      <c r="U80">
+        <v>497.41199999999998</v>
+      </c>
+      <c r="V80">
+        <v>191.45099999999999</v>
+      </c>
+      <c r="W80">
+        <v>-80.061999999999998</v>
+      </c>
+      <c r="X80">
+        <v>-107.361</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>86.203999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>84.828000000000003</v>
+      </c>
+      <c r="D81">
+        <v>1268.076</v>
+      </c>
+      <c r="E81">
+        <v>928.625</v>
+      </c>
+      <c r="F81">
+        <v>524.53</v>
+      </c>
+      <c r="G81">
+        <v>2946.2049999999999</v>
+      </c>
+      <c r="H81">
+        <v>13085.374</v>
+      </c>
+      <c r="I81">
+        <v>505.25900000000001</v>
+      </c>
+      <c r="J81">
+        <v>3890.7620000000002</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1616.259</v>
+      </c>
+      <c r="O81">
+        <v>6895.0540000000001</v>
+      </c>
+      <c r="P81">
+        <v>4331.7240000000002</v>
+      </c>
+      <c r="Q81">
+        <v>-28.408000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6190.32</v>
+      </c>
+      <c r="U81">
+        <v>469.84</v>
+      </c>
+      <c r="V81">
+        <v>206.63200000000001</v>
+      </c>
+      <c r="W81">
+        <v>-80.173000000000002</v>
+      </c>
+      <c r="X81">
+        <v>-203.42</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>84.828000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>67.588999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1270.0730000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>929.34199999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>513.81899999999996</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3059.799</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>13555.671</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>555.68700000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3779.3589999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1903.7260000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7135.0839999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4725.78</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>176.346</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13700</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6420.5870000000004</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>649.54100000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>299.07</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-82.311000000000007</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-93.561000000000007</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>268.64</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>67.588999999999999</v>
       </c>
     </row>
